--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950" tabRatio="990" activeTab="2"/>
+    <workbookView windowWidth="18705" windowHeight="8970" tabRatio="990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="agile_lookup_type" sheetId="10" r:id="rId2"/>
     <sheet name="agile_lookup_value" sheetId="11" r:id="rId3"/>
+    <sheet name="agile_quick_filter_filed" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -434,6 +435,39 @@
   </si>
   <si>
     <t>无状态列颜色</t>
+  </si>
+  <si>
+    <t>agile_quick_filter_filed</t>
+  </si>
+  <si>
+    <t>*filed_id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>#filed</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>assignee_id</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>priority_code</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>status_id</t>
   </si>
 </sst>
 </file>
@@ -442,9 +476,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -468,6 +502,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -476,10 +518,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,6 +554,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -520,18 +585,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,51 +639,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -621,31 +655,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,151 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,10 +849,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -839,39 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -887,28 +938,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,10 +952,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -930,133 +964,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1577,7 +1611,7 @@
   <sheetPr/>
   <dimension ref="D7:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -2214,4 +2248,87 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8">
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8">
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8">
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -452,7 +452,7 @@
     <t>auto</t>
   </si>
   <si>
-    <t>number</t>
+    <t>long</t>
   </si>
   <si>
     <t>assignee_id</t>
@@ -496,22 +496,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,27 +533,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -570,15 +561,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -601,15 +584,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,14 +632,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,31 +655,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,13 +805,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,133 +823,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,37 +873,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,6 +897,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -937,160 +946,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2256,7 +2256,7 @@
   <dimension ref="D7:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KanbanWork\agile-service\src\main\resources\script\db\data_init\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB86F26-84D5-49B2-8DF1-50ECF5A91AF3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="8970" tabRatio="990" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="8970" tabRatio="990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="agile_lookup_type" sheetId="10" r:id="rId2"/>
     <sheet name="agile_lookup_value" sheetId="11" r:id="rId3"/>
     <sheet name="agile_quick_filter_filed" sheetId="12" r:id="rId4"/>
+    <sheet name="agile_issue_link_type" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -468,19 +475,77 @@
   </si>
   <si>
     <t>status_id</t>
+  </si>
+  <si>
+    <t>agile_issue_link_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*link_type_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloners</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duplicate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is blocked by</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_ward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_ward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is cloned by</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clones</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is duplicated by</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relates to</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#link_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -495,352 +560,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -848,252 +587,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -1102,62 +599,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1415,16 +868,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1432,8 +885,9 @@
     <col min="1" max="1025" width="9.75"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -1442,15 +896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="9.75"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -1475,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="4:7">
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="4:7">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -1497,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="4:7">
       <c r="E10" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="4:7">
       <c r="E11" t="s">
         <v>13</v>
       </c>
@@ -1519,7 +972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="4:7">
       <c r="E12" t="s">
         <v>16</v>
       </c>
@@ -1530,7 +983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="4:7">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -1541,7 +994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="4:7">
       <c r="E14" t="s">
         <v>22</v>
       </c>
@@ -1552,7 +1005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="4:7">
       <c r="E15" t="s">
         <v>25</v>
       </c>
@@ -1563,7 +1016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="4:7">
       <c r="E16" t="s">
         <v>28</v>
       </c>
@@ -1597,8 +1050,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -1607,15 +1061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -1641,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
         <v>40</v>
       </c>
@@ -1655,7 +1108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>42</v>
       </c>
@@ -1669,7 +1122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="4:8">
       <c r="E10" t="s">
         <v>44</v>
       </c>
@@ -1683,7 +1136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" spans="4:8">
       <c r="E11" t="s">
         <v>46</v>
       </c>
@@ -1697,7 +1150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="4:8">
       <c r="E12" t="s">
         <v>48</v>
       </c>
@@ -1711,7 +1164,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="4:8">
       <c r="E13" t="s">
         <v>50</v>
       </c>
@@ -1725,7 +1178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="5:8">
+    <row r="14" spans="4:8">
       <c r="E14" t="s">
         <v>52</v>
       </c>
@@ -1739,7 +1192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="5:8">
+    <row r="15" spans="4:8">
       <c r="E15" t="s">
         <v>54</v>
       </c>
@@ -1753,7 +1206,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="5:8">
+    <row r="16" spans="4:8">
       <c r="E16" t="s">
         <v>56</v>
       </c>
@@ -2244,22 +1697,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -2285,7 +1737,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
         <v>142</v>
       </c>
@@ -2299,7 +1751,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>142</v>
       </c>
@@ -2313,7 +1765,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="4:8">
       <c r="E10" t="s">
         <v>142</v>
       </c>
@@ -2328,7 +1780,104 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D41263-663F-4938-B251-1D1B92A1E6CE}">
+  <dimension ref="D7:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8">
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KanbanWork\agile-service\src\main\resources\script\db\data_init\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB86F26-84D5-49B2-8DF1-50ECF5A91AF3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="8970" tabRatio="990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18705" windowHeight="8970" tabRatio="990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="agile_lookup_type" sheetId="10" r:id="rId2"/>
     <sheet name="agile_lookup_value" sheetId="11" r:id="rId3"/>
-    <sheet name="agile_quick_filter_filed" sheetId="12" r:id="rId4"/>
+    <sheet name="agile_quick_filter_field" sheetId="12" r:id="rId4"/>
     <sheet name="agile_issue_link_type" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -444,16 +438,16 @@
     <t>无状态列颜色</t>
   </si>
   <si>
-    <t>agile_quick_filter_filed</t>
-  </si>
-  <si>
-    <t>*filed_id</t>
+    <t>agile_quick_filter_field</t>
+  </si>
+  <si>
+    <t>*field_id</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>#filed</t>
+    <t>#field</t>
   </si>
   <si>
     <t>auto</t>
@@ -478,74 +472,61 @@
   </si>
   <si>
     <t>agile_issue_link_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>*link_type_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#link_name</t>
+  </si>
+  <si>
+    <t>in_ward</t>
+  </si>
+  <si>
+    <t>out_ward</t>
   </si>
   <si>
     <t>Blocks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is blocked by</t>
   </si>
   <si>
     <t>Cloners</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is cloned by</t>
+  </si>
+  <si>
+    <t>clones</t>
   </si>
   <si>
     <t>Duplicate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is duplicated by</t>
+  </si>
+  <si>
+    <t>duplicates</t>
   </si>
   <si>
     <t>Relates</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>is blocked by</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_ward</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_ward</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>is cloned by</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>clones</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>is duplicated by</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicates</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>relates to</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#link_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -560,26 +541,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -587,10 +894,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -599,18 +1148,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -868,12 +1461,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -885,9 +1478,8 @@
     <col min="1" max="1025" width="9.75"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -896,14 +1488,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="9.75"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -928,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -939,7 +1532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -950,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
         <v>10</v>
       </c>
@@ -961,7 +1554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
         <v>13</v>
       </c>
@@ -972,7 +1565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
         <v>16</v>
       </c>
@@ -983,7 +1576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -994,7 +1587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +1598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
         <v>25</v>
       </c>
@@ -1016,7 +1609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
         <v>28</v>
       </c>
@@ -1050,9 +1643,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -1061,14 +1653,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -1094,7 +1687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
         <v>40</v>
       </c>
@@ -1108,7 +1701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
         <v>42</v>
       </c>
@@ -1122,7 +1715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
         <v>44</v>
       </c>
@@ -1136,7 +1729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="5:8">
       <c r="E11" t="s">
         <v>46</v>
       </c>
@@ -1150,7 +1743,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="5:8">
       <c r="E12" t="s">
         <v>48</v>
       </c>
@@ -1164,7 +1757,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="5:8">
       <c r="E13" t="s">
         <v>50</v>
       </c>
@@ -1178,7 +1771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="5:8">
       <c r="E14" t="s">
         <v>52</v>
       </c>
@@ -1192,7 +1785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="5:8">
       <c r="E15" t="s">
         <v>54</v>
       </c>
@@ -1206,7 +1799,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="5:8">
       <c r="E16" t="s">
         <v>56</v>
       </c>
@@ -1697,21 +2290,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -1737,7 +2331,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
         <v>142</v>
       </c>
@@ -1751,7 +2345,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
         <v>142</v>
       </c>
@@ -1765,7 +2359,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
         <v>142</v>
       </c>
@@ -1780,20 +2374,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D41263-663F-4938-B251-1D1B92A1E6CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
@@ -1810,63 +2405,63 @@
         <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
         <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8">
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
         <v>159</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="E10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>161</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" spans="5:8">
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="E11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" t="s">
-        <v>155</v>
       </c>
       <c r="G11" t="s">
         <v>163</v>
@@ -1876,8 +2471,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KanbanWork\agile-service\src\main\resources\script\db\data_init\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9058C9-1FE1-4ED8-9959-E603075DD371}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="8970" tabRatio="990" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="8970" tabRatio="990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="165">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -514,19 +520,17 @@
   </si>
   <si>
     <t>relates to</t>
+  </si>
+  <si>
+    <t>blocks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -541,352 +545,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -894,252 +572,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -1148,62 +584,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1461,12 +853,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1478,8 +870,9 @@
     <col min="1" max="1025" width="9.75"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -1488,15 +881,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="9.75"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -1521,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="4:7">
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="4:7">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="4:7">
       <c r="E10" t="s">
         <v>10</v>
       </c>
@@ -1554,7 +946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="4:7">
       <c r="E11" t="s">
         <v>13</v>
       </c>
@@ -1565,7 +957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="4:7">
       <c r="E12" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="4:7">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="4:7">
       <c r="E14" t="s">
         <v>22</v>
       </c>
@@ -1598,7 +990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="4:7">
       <c r="E15" t="s">
         <v>25</v>
       </c>
@@ -1609,7 +1001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="4:7">
       <c r="E16" t="s">
         <v>28</v>
       </c>
@@ -1643,8 +1035,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -1653,15 +1046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -1687,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
         <v>40</v>
       </c>
@@ -1701,7 +1093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>42</v>
       </c>
@@ -1715,7 +1107,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="4:8">
       <c r="E10" t="s">
         <v>44</v>
       </c>
@@ -1729,7 +1121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" spans="4:8">
       <c r="E11" t="s">
         <v>46</v>
       </c>
@@ -1743,7 +1135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="4:8">
       <c r="E12" t="s">
         <v>48</v>
       </c>
@@ -1757,7 +1149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="4:8">
       <c r="E13" t="s">
         <v>50</v>
       </c>
@@ -1771,7 +1163,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="5:8">
+    <row r="14" spans="4:8">
       <c r="E14" t="s">
         <v>52</v>
       </c>
@@ -1785,7 +1177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="5:8">
+    <row r="15" spans="4:8">
       <c r="E15" t="s">
         <v>54</v>
       </c>
@@ -1799,7 +1191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="5:8">
+    <row r="16" spans="4:8">
       <c r="E16" t="s">
         <v>56</v>
       </c>
@@ -2290,22 +1682,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -2331,7 +1722,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
         <v>142</v>
       </c>
@@ -2345,7 +1736,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>142</v>
       </c>
@@ -2359,7 +1750,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="4:8">
       <c r="E10" t="s">
         <v>142</v>
       </c>
@@ -2374,21 +1765,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
@@ -2414,7 +1804,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
         <v>142</v>
       </c>
@@ -2425,10 +1815,10 @@
         <v>155</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>142</v>
       </c>
@@ -2442,7 +1832,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="4:8">
       <c r="E10" t="s">
         <v>142</v>
       </c>
@@ -2456,7 +1846,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" spans="4:8">
       <c r="E11" t="s">
         <v>142</v>
       </c>
@@ -2471,8 +1861,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KanbanWork\agile-service\src\main\resources\script\db\data_init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9058C9-1FE1-4ED8-9959-E603075DD371}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EEEA3A-F4AA-4347-BA66-C893E8CAE70C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="8970" tabRatio="990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="8970" tabRatio="990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="agile_lookup_type" sheetId="10" r:id="rId2"/>
     <sheet name="agile_lookup_value" sheetId="11" r:id="rId3"/>
     <sheet name="agile_quick_filter_field" sheetId="12" r:id="rId4"/>
-    <sheet name="agile_issue_link_type" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="149">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -475,55 +474,6 @@
   </si>
   <si>
     <t>status_id</t>
-  </si>
-  <si>
-    <t>agile_issue_link_type</t>
-  </si>
-  <si>
-    <t>*link_type_id</t>
-  </si>
-  <si>
-    <t>#link_name</t>
-  </si>
-  <si>
-    <t>in_ward</t>
-  </si>
-  <si>
-    <t>out_ward</t>
-  </si>
-  <si>
-    <t>Blocks</t>
-  </si>
-  <si>
-    <t>is blocked by</t>
-  </si>
-  <si>
-    <t>Cloners</t>
-  </si>
-  <si>
-    <t>is cloned by</t>
-  </si>
-  <si>
-    <t>clones</t>
-  </si>
-  <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
-    <t>is duplicated by</t>
-  </si>
-  <si>
-    <t>duplicates</t>
-  </si>
-  <si>
-    <t>Relates</t>
-  </si>
-  <si>
-    <t>relates to</t>
-  </si>
-  <si>
-    <t>blocks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1692,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1768,101 +1718,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D7:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:8">
-      <c r="D7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
-      <c r="E8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="E9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="E10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="E11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KanbanWork\agile-service\src\main\resources\script\db\data_init\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EEEA3A-F4AA-4347-BA66-C893E8CAE70C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="8970" tabRatio="990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18750" windowHeight="8970" tabRatio="990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -474,13 +468,103 @@
   </si>
   <si>
     <t>status_id</t>
+  </si>
+  <si>
+    <t>报告人</t>
+  </si>
+  <si>
+    <t>reporter_id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>问题编号</t>
+  </si>
+  <si>
+    <t>issue_num</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
+    <t>问题摘要</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>story_points</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>剩余时间</t>
+  </si>
+  <si>
+    <t>remaining_time</t>
+  </si>
+  <si>
+    <t>epic_id</t>
+  </si>
+  <si>
+    <t>冲刺</t>
+  </si>
+  <si>
+    <t>sprint_id</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>label_id</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>component_id</t>
+  </si>
+  <si>
+    <t>影响版本</t>
+  </si>
+  <si>
+    <t>version_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -495,26 +579,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -522,10 +932,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -534,18 +1186,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -803,12 +1499,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -820,9 +1516,8 @@
     <col min="1" max="1025" width="9.75"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -831,14 +1526,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="9.75"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -863,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -874,7 +1570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -885,7 +1581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
         <v>10</v>
       </c>
@@ -896,7 +1592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
         <v>13</v>
       </c>
@@ -907,7 +1603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
         <v>16</v>
       </c>
@@ -918,7 +1614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -929,7 +1625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
         <v>22</v>
       </c>
@@ -940,7 +1636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
         <v>25</v>
       </c>
@@ -951,7 +1647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
         <v>28</v>
       </c>
@@ -985,9 +1681,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -996,14 +1691,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -1029,7 +1725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
         <v>40</v>
       </c>
@@ -1043,7 +1739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
         <v>42</v>
       </c>
@@ -1057,7 +1753,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
         <v>44</v>
       </c>
@@ -1071,7 +1767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="5:8">
       <c r="E11" t="s">
         <v>46</v>
       </c>
@@ -1085,7 +1781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="5:8">
       <c r="E12" t="s">
         <v>48</v>
       </c>
@@ -1099,7 +1795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="5:8">
       <c r="E13" t="s">
         <v>50</v>
       </c>
@@ -1113,7 +1809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="5:8">
       <c r="E14" t="s">
         <v>52</v>
       </c>
@@ -1127,7 +1823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="5:8">
       <c r="E15" t="s">
         <v>54</v>
       </c>
@@ -1141,7 +1837,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="5:8">
       <c r="E16" t="s">
         <v>56</v>
       </c>
@@ -1632,21 +2328,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D11" sqref="D11:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -1672,7 +2369,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
         <v>142</v>
       </c>
@@ -1686,7 +2383,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
         <v>142</v>
       </c>
@@ -1700,7 +2397,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
         <v>142</v>
       </c>
@@ -1714,8 +2411,204 @@
         <v>148</v>
       </c>
     </row>
+    <row r="11" spans="5:8">
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8">
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8">
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8">
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8">
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8">
+      <c r="E16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -489,12 +489,6 @@
   </si>
   <si>
     <t>last_update_date</t>
-  </si>
-  <si>
-    <t>问题编号</t>
-  </si>
-  <si>
-    <t>issue_num</t>
   </si>
   <si>
     <t>创建人</t>
@@ -559,10 +553,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -593,24 +587,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -631,6 +624,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -646,7 +694,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -662,73 +717,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -739,66 +733,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -806,114 +908,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +931,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,16 +955,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,17 +975,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,11 +1003,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,148 +1027,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2337,10 +2331,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H24"/>
+  <dimension ref="D7:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:H24"/>
+      <selection activeCell="D14" sqref="D14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -2458,7 +2452,7 @@
         <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
         <v>156</v>
@@ -2486,7 +2480,7 @@
         <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
         <v>160</v>
@@ -2500,13 +2494,13 @@
         <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
         <v>162</v>
-      </c>
-      <c r="H17" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="5:8">
@@ -2514,13 +2508,13 @@
         <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="5:8">
@@ -2528,13 +2522,13 @@
         <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
         <v>166</v>
-      </c>
-      <c r="H19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="20" spans="5:8">
@@ -2545,7 +2539,7 @@
         <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="H20" t="s">
         <v>168</v>
@@ -2591,20 +2585,6 @@
       </c>
       <c r="H23" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8">
-      <c r="E24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -440,16 +440,13 @@
     <t>agile_quick_filter_field</t>
   </si>
   <si>
-    <t>*field_id</t>
+    <t>#field_code</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>#field</t>
-  </si>
-  <si>
-    <t>auto</t>
+    <t>field</t>
   </si>
   <si>
     <t>long</t>
@@ -464,31 +461,40 @@
     <t>priority_code</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>状态</t>
   </si>
   <si>
     <t>status_id</t>
   </si>
   <si>
+    <t>reporter</t>
+  </si>
+  <si>
     <t>报告人</t>
   </si>
   <si>
     <t>reporter_id</t>
   </si>
   <si>
+    <t>creation_date</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
     <t>创建时间</t>
   </si>
   <si>
-    <t>creation_date</t>
+    <t>last_update_date</t>
   </si>
   <si>
     <t>更新时间</t>
   </si>
   <si>
-    <t>last_update_date</t>
+    <t>created_user</t>
   </si>
   <si>
     <t>创建人</t>
@@ -497,21 +503,27 @@
     <t>created_by</t>
   </si>
   <si>
+    <t>last_updated_user</t>
+  </si>
+  <si>
     <t>更新人</t>
   </si>
   <si>
     <t>last_updated_by</t>
   </si>
   <si>
+    <t>summary</t>
+  </si>
+  <si>
     <t>问题摘要</t>
   </si>
   <si>
-    <t>summary</t>
-  </si>
-  <si>
     <t>story_points</t>
   </si>
   <si>
+    <t>remain_time</t>
+  </si>
+  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -521,19 +533,31 @@
     <t>remaining_time</t>
   </si>
   <si>
+    <t>epic</t>
+  </si>
+  <si>
     <t>epic_id</t>
   </si>
   <si>
+    <t>sprint</t>
+  </si>
+  <si>
     <t>冲刺</t>
   </si>
   <si>
     <t>sprint_id</t>
   </si>
   <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>标签</t>
   </si>
   <si>
     <t>label_id</t>
+  </si>
+  <si>
+    <t>component</t>
   </si>
   <si>
     <t>模块</t>
@@ -553,9 +577,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -581,6 +605,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -594,8 +633,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,9 +649,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,7 +665,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,44 +720,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,22 +742,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,187 +757,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,11 +951,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,7 +985,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,41 +1016,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1024,151 +1030,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1689,7 +1713,7 @@
   <sheetPr/>
   <dimension ref="D7:H50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2333,14 +2357,14 @@
   <sheetPr/>
   <dimension ref="D7:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
@@ -2365,38 +2389,38 @@
     </row>
     <row r="8" spans="5:8">
       <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
         <v>142</v>
-      </c>
-      <c r="F8" t="s">
-        <v>143</v>
       </c>
       <c r="G8" t="s">
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="5:8">
       <c r="E9" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="5:8">
       <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" t="s">
         <v>142</v>
-      </c>
-      <c r="F10" t="s">
-        <v>143</v>
       </c>
       <c r="G10" t="s">
         <v>147</v>
@@ -2407,41 +2431,41 @@
     </row>
     <row r="11" spans="5:8">
       <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
         <v>142</v>
       </c>
-      <c r="F11" t="s">
-        <v>143</v>
-      </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="5:8">
       <c r="E12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" t="s">
         <v>152</v>
-      </c>
-      <c r="H12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="5:8">
       <c r="E13" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H13" t="s">
         <v>155</v>
@@ -2449,142 +2473,142 @@
     </row>
     <row r="14" spans="5:8">
       <c r="E14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" t="s">
         <v>142</v>
       </c>
-      <c r="F14" t="s">
-        <v>143</v>
-      </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="5:8">
       <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
         <v>142</v>
       </c>
-      <c r="F15" t="s">
-        <v>143</v>
-      </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="5:8">
       <c r="E16" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
         <v>142</v>
-      </c>
-      <c r="F17" t="s">
-        <v>143</v>
       </c>
       <c r="G17" t="s">
         <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" t="s">
         <v>142</v>
-      </c>
-      <c r="F19" t="s">
-        <v>143</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" t="s">
         <v>142</v>
       </c>
-      <c r="F20" t="s">
-        <v>143</v>
-      </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H20" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="5:8">
       <c r="E21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" t="s">
         <v>142</v>
       </c>
-      <c r="F21" t="s">
-        <v>143</v>
-      </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s">
         <v>142</v>
       </c>
-      <c r="F22" t="s">
-        <v>143</v>
-      </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H22" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="5:8">
       <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>142</v>
       </c>
-      <c r="F23" t="s">
-        <v>143</v>
-      </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H23" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -510,12 +510,6 @@
   </si>
   <si>
     <t>last_updated_by</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>问题摘要</t>
   </si>
   <si>
     <t>story_points</t>
@@ -579,8 +573,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -598,28 +592,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -629,13 +601,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,47 +629,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,6 +659,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -742,6 +721,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -757,31 +751,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,55 +913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,85 +925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,36 +960,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1033,9 +1001,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,151 +1033,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2355,10 +2349,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H23"/>
+  <dimension ref="D7:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D16" sqref="D16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -2501,13 +2495,13 @@
     </row>
     <row r="16" spans="5:8">
       <c r="E16" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
         <v>163</v>
@@ -2515,27 +2509,27 @@
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
         <v>169</v>
@@ -2549,43 +2543,43 @@
         <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="5:8">
       <c r="E21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2595,20 +2589,6 @@
       </c>
       <c r="H22" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8">
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H23" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -560,10 +560,19 @@
     <t>component_id</t>
   </si>
   <si>
-    <t>影响版本</t>
+    <t>fix_version</t>
+  </si>
+  <si>
+    <t>修复的版本</t>
   </si>
   <si>
     <t>version_id</t>
+  </si>
+  <si>
+    <t>influence_version</t>
+  </si>
+  <si>
+    <t>影响的版本</t>
   </si>
 </sst>
 </file>
@@ -571,10 +580,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -592,7 +601,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,13 +618,65 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,9 +698,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,14 +719,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -659,38 +727,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,42 +744,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -751,19 +760,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,163 +916,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,17 +954,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,7 +969,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,28 +989,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,168 +1037,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2349,10 +2358,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H22"/>
+  <dimension ref="D7:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:I16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -2579,16 +2588,30 @@
     </row>
     <row r="22" spans="5:8">
       <c r="E22" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>影响的版本</t>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
 </sst>
 </file>
@@ -580,10 +583,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -607,9 +610,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,14 +648,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,57 +723,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -729,27 +741,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -766,25 +769,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,151 +937,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,59 +954,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1018,6 +968,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,151 +1010,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2358,9 +2361,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H23"/>
+  <dimension ref="D7:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -2614,6 +2617,20 @@
         <v>181</v>
       </c>
     </row>
+    <row r="24" spans="5:8">
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KanbanWork\agile-service\src\main\resources\script\db\data_init\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6DA93D-BF83-4E71-8716-D356592F7A27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18750" windowHeight="8970" tabRatio="990" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="8970" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="183">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -299,296 +305,300 @@
     <t>epic_color_a</t>
   </si>
   <si>
-    <t>#815B3A</t>
-  </si>
-  <si>
-    <t>黄土赭色</t>
-  </si>
-  <si>
     <t>epic_color_b</t>
   </si>
   <si>
-    <t>#F79232</t>
+    <t>epic_color_c</t>
+  </si>
+  <si>
+    <t>epic_color_d</t>
+  </si>
+  <si>
+    <t>epic_color_e</t>
+  </si>
+  <si>
+    <t>#4A6785</t>
+  </si>
+  <si>
+    <t>epic_color_f</t>
+  </si>
+  <si>
+    <t>epic_color_g</t>
+  </si>
+  <si>
+    <t>epic_color_h</t>
+  </si>
+  <si>
+    <t>issue_status_color_todo</t>
+  </si>
+  <si>
+    <t>#FFB100</t>
+  </si>
+  <si>
+    <t>待处理状态的颜色</t>
+  </si>
+  <si>
+    <t>issue_status_color_doing</t>
+  </si>
+  <si>
+    <t>#4D90FE</t>
+  </si>
+  <si>
+    <t>处理中状态的颜色</t>
+  </si>
+  <si>
+    <t>issue_status_color_done</t>
+  </si>
+  <si>
+    <t>#00BFA5</t>
+  </si>
+  <si>
+    <t>已完成状态的颜色</t>
+  </si>
+  <si>
+    <t>column_color_todo</t>
+  </si>
+  <si>
+    <t>todo列颜色</t>
+  </si>
+  <si>
+    <t>column_color_doing</t>
+  </si>
+  <si>
+    <t>#F6C342</t>
+  </si>
+  <si>
+    <t>doing列颜色</t>
+  </si>
+  <si>
+    <t>column_color_done</t>
+  </si>
+  <si>
+    <t>#14882C</t>
+  </si>
+  <si>
+    <t>done列颜色</t>
+  </si>
+  <si>
+    <t>column_color_no_status</t>
+  </si>
+  <si>
+    <t>#707070</t>
+  </si>
+  <si>
+    <t>无状态列颜色</t>
+  </si>
+  <si>
+    <t>agile_quick_filter_field</t>
+  </si>
+  <si>
+    <t>#field_code</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>assignee_id</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>priority_code</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>status_id</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>报告人</t>
+  </si>
+  <si>
+    <t>reporter_id</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>created_user</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>last_updated_user</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
+    <t>story_points</t>
+  </si>
+  <si>
+    <t>remain_time</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>剩余时间</t>
+  </si>
+  <si>
+    <t>remaining_time</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>epic_id</t>
+  </si>
+  <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>冲刺</t>
+  </si>
+  <si>
+    <t>sprint_id</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>label_id</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>component_id</t>
+  </si>
+  <si>
+    <t>fix_version</t>
+  </si>
+  <si>
+    <t>修复的版本</t>
+  </si>
+  <si>
+    <t>version_id</t>
+  </si>
+  <si>
+    <t>influence_version</t>
+  </si>
+  <si>
+    <t>影响的版本</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>#4D90FE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#303F9F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFB100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF7043</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#F44336</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#F953BA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00BFA5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅蓝色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深蓝色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土黄色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>橙色</t>
-  </si>
-  <si>
-    <t>epic_color_c</t>
-  </si>
-  <si>
-    <t>#D3973F</t>
-  </si>
-  <si>
-    <t>巧克力色</t>
-  </si>
-  <si>
-    <t>epic_color_d</t>
-  </si>
-  <si>
-    <t>#3B7FC4</t>
-  </si>
-  <si>
-    <t>皇家蓝色</t>
-  </si>
-  <si>
-    <t>epic_color_e</t>
-  </si>
-  <si>
-    <t>#4A6785</t>
-  </si>
-  <si>
-    <t>深岩暗蓝灰色</t>
-  </si>
-  <si>
-    <t>epic_color_f</t>
-  </si>
-  <si>
-    <t>#8EB021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 橄榄色</t>
-  </si>
-  <si>
-    <t>epic_color_g</t>
-  </si>
-  <si>
-    <t>#AC707A</t>
-  </si>
-  <si>
-    <t>苍白的紫罗兰红色</t>
-  </si>
-  <si>
-    <t>epic_color_h</t>
-  </si>
-  <si>
-    <t>#654982</t>
-  </si>
-  <si>
-    <t>靛青色</t>
-  </si>
-  <si>
-    <t>epic_color_i</t>
-  </si>
-  <si>
-    <t>#F15C75</t>
-  </si>
-  <si>
-    <t>热情的粉红色</t>
-  </si>
-  <si>
-    <t>issue_status_color_todo</t>
-  </si>
-  <si>
-    <t>#FFB100</t>
-  </si>
-  <si>
-    <t>待处理状态的颜色</t>
-  </si>
-  <si>
-    <t>issue_status_color_doing</t>
-  </si>
-  <si>
-    <t>#4D90FE</t>
-  </si>
-  <si>
-    <t>处理中状态的颜色</t>
-  </si>
-  <si>
-    <t>issue_status_color_done</t>
-  </si>
-  <si>
-    <t>#00BFA5</t>
-  </si>
-  <si>
-    <t>已完成状态的颜色</t>
-  </si>
-  <si>
-    <t>column_color_todo</t>
-  </si>
-  <si>
-    <t>todo列颜色</t>
-  </si>
-  <si>
-    <t>column_color_doing</t>
-  </si>
-  <si>
-    <t>#F6C342</t>
-  </si>
-  <si>
-    <t>doing列颜色</t>
-  </si>
-  <si>
-    <t>column_color_done</t>
-  </si>
-  <si>
-    <t>#14882C</t>
-  </si>
-  <si>
-    <t>done列颜色</t>
-  </si>
-  <si>
-    <t>column_color_no_status</t>
-  </si>
-  <si>
-    <t>#707070</t>
-  </si>
-  <si>
-    <t>无状态列颜色</t>
-  </si>
-  <si>
-    <t>agile_quick_filter_field</t>
-  </si>
-  <si>
-    <t>#field_code</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>assignee_id</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>priority_code</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>status_id</t>
-  </si>
-  <si>
-    <t>reporter</t>
-  </si>
-  <si>
-    <t>报告人</t>
-  </si>
-  <si>
-    <t>reporter_id</t>
-  </si>
-  <si>
-    <t>creation_date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>last_update_date</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>created_user</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>created_by</t>
-  </si>
-  <si>
-    <t>last_updated_user</t>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
-    <t>last_updated_by</t>
-  </si>
-  <si>
-    <t>story_points</t>
-  </si>
-  <si>
-    <t>remain_time</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>剩余时间</t>
-  </si>
-  <si>
-    <t>remaining_time</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>epic_id</t>
-  </si>
-  <si>
-    <t>sprint</t>
-  </si>
-  <si>
-    <t>冲刺</t>
-  </si>
-  <si>
-    <t>sprint_id</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>label_id</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>component_id</t>
-  </si>
-  <si>
-    <t>fix_version</t>
-  </si>
-  <si>
-    <t>修复的版本</t>
-  </si>
-  <si>
-    <t>version_id</t>
-  </si>
-  <si>
-    <t>influence_version</t>
-  </si>
-  <si>
-    <t>影响的版本</t>
-  </si>
-  <si>
-    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅红色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡绿色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -603,352 +613,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -956,252 +640,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -1210,62 +652,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1523,12 +921,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1540,8 +938,9 @@
     <col min="1" max="1025" width="9.75"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -1550,15 +949,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="9.75"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -1583,7 +981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="4:7">
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -1594,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="4:7">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -1605,7 +1003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="4:7">
       <c r="E10" t="s">
         <v>10</v>
       </c>
@@ -1616,7 +1014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="4:7">
       <c r="E11" t="s">
         <v>13</v>
       </c>
@@ -1627,7 +1025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="4:7">
       <c r="E12" t="s">
         <v>16</v>
       </c>
@@ -1638,7 +1036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="4:7">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -1649,7 +1047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="4:7">
       <c r="E14" t="s">
         <v>22</v>
       </c>
@@ -1660,7 +1058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="4:7">
       <c r="E15" t="s">
         <v>25</v>
       </c>
@@ -1671,7 +1069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="4:7">
       <c r="E16" t="s">
         <v>28</v>
       </c>
@@ -1705,8 +1103,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -1715,15 +1114,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D7:H49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -1749,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
         <v>40</v>
       </c>
@@ -1763,7 +1161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>42</v>
       </c>
@@ -1777,7 +1175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="4:8">
       <c r="E10" t="s">
         <v>44</v>
       </c>
@@ -1791,7 +1189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" spans="4:8">
       <c r="E11" t="s">
         <v>46</v>
       </c>
@@ -1805,7 +1203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="4:8">
       <c r="E12" t="s">
         <v>48</v>
       </c>
@@ -1819,7 +1217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="4:8">
       <c r="E13" t="s">
         <v>50</v>
       </c>
@@ -1833,7 +1231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="5:8">
+    <row r="14" spans="4:8">
       <c r="E14" t="s">
         <v>52</v>
       </c>
@@ -1847,7 +1245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="5:8">
+    <row r="15" spans="4:8">
       <c r="E15" t="s">
         <v>54</v>
       </c>
@@ -1861,7 +1259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="5:8">
+    <row r="16" spans="4:8">
       <c r="E16" t="s">
         <v>56</v>
       </c>
@@ -2135,239 +1533,224 @@
         <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="H38" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="H40" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
         <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
         <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H44" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="H45" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="H46" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F48" t="s">
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H48" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F49" t="s">
         <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="H49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="5:8">
-      <c r="E50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
@@ -2378,243 +1761,243 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="5:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
         <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="5:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
       <c r="E10" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="E15" t="s">
         <v>142</v>
       </c>
-      <c r="G10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8">
-      <c r="E11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8">
-      <c r="E12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8">
-      <c r="E13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="5:8">
-      <c r="E14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="5:8">
-      <c r="E15" t="s">
-        <v>160</v>
-      </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="5:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
       <c r="E16" t="s">
         <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
         <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
         <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="H20" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="5:8">
       <c r="E21" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="H21" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="5:8">
       <c r="E23" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="5:8">
@@ -2622,17 +2005,17 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KanbanWork\agile-service\src\main\resources\script\db\data_init\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6DA93D-BF83-4E71-8716-D356592F7A27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="8970" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19365" windowHeight="8970" tabRatio="990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -245,6 +239,12 @@
     <t>故障</t>
   </si>
   <si>
+    <t>issue_test</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -305,60 +305,99 @@
     <t>epic_color_a</t>
   </si>
   <si>
+    <t>#4D90FE</t>
+  </si>
+  <si>
+    <t>浅蓝色</t>
+  </si>
+  <si>
     <t>epic_color_b</t>
   </si>
   <si>
+    <t>#303F9F</t>
+  </si>
+  <si>
+    <t>深蓝色</t>
+  </si>
+  <si>
     <t>epic_color_c</t>
   </si>
   <si>
+    <t>#FFB100</t>
+  </si>
+  <si>
+    <t>土黄色</t>
+  </si>
+  <si>
     <t>epic_color_d</t>
   </si>
   <si>
+    <t>#FF7043</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
     <t>epic_color_e</t>
   </si>
   <si>
+    <t>#F44336</t>
+  </si>
+  <si>
+    <t>浅红色</t>
+  </si>
+  <si>
+    <t>epic_color_f</t>
+  </si>
+  <si>
+    <t>#F953BA</t>
+  </si>
+  <si>
+    <t>粉色</t>
+  </si>
+  <si>
+    <t>epic_color_g</t>
+  </si>
+  <si>
+    <t>#00BFA5</t>
+  </si>
+  <si>
+    <t>淡绿色</t>
+  </si>
+  <si>
+    <t>epic_color_h</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>灰色</t>
+  </si>
+  <si>
+    <t>issue_status_color_todo</t>
+  </si>
+  <si>
+    <t>待处理状态的颜色</t>
+  </si>
+  <si>
+    <t>issue_status_color_doing</t>
+  </si>
+  <si>
+    <t>处理中状态的颜色</t>
+  </si>
+  <si>
+    <t>issue_status_color_done</t>
+  </si>
+  <si>
+    <t>已完成状态的颜色</t>
+  </si>
+  <si>
+    <t>column_color_todo</t>
+  </si>
+  <si>
     <t>#4A6785</t>
   </si>
   <si>
-    <t>epic_color_f</t>
-  </si>
-  <si>
-    <t>epic_color_g</t>
-  </si>
-  <si>
-    <t>epic_color_h</t>
-  </si>
-  <si>
-    <t>issue_status_color_todo</t>
-  </si>
-  <si>
-    <t>#FFB100</t>
-  </si>
-  <si>
-    <t>待处理状态的颜色</t>
-  </si>
-  <si>
-    <t>issue_status_color_doing</t>
-  </si>
-  <si>
-    <t>#4D90FE</t>
-  </si>
-  <si>
-    <t>处理中状态的颜色</t>
-  </si>
-  <si>
-    <t>issue_status_color_done</t>
-  </si>
-  <si>
-    <t>#00BFA5</t>
-  </si>
-  <si>
-    <t>已完成状态的颜色</t>
-  </si>
-  <si>
-    <t>column_color_todo</t>
-  </si>
-  <si>
     <t>todo列颜色</t>
   </si>
   <si>
@@ -528,77 +567,19 @@
   </si>
   <si>
     <t>类型</t>
-  </si>
-  <si>
-    <t>#4D90FE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#303F9F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#FFB100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#FF7043</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#F44336</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#F953BA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#00BFA5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#000000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅蓝色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>深蓝色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>土黄色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅红色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡绿色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -613,26 +594,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -640,10 +947,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -652,18 +1201,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -921,12 +1514,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -938,9 +1531,8 @@
     <col min="1" max="1025" width="9.75"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -949,14 +1541,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="9.75"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -981,7 +1574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -992,7 +1585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
         <v>10</v>
       </c>
@@ -1014,7 +1607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
         <v>16</v>
       </c>
@@ -1036,7 +1629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -1047,7 +1640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
         <v>22</v>
       </c>
@@ -1058,7 +1651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
         <v>25</v>
       </c>
@@ -1069,7 +1662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
         <v>28</v>
       </c>
@@ -1103,9 +1696,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -1114,14 +1706,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -1147,7 +1740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
         <v>40</v>
       </c>
@@ -1161,7 +1754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
         <v>42</v>
       </c>
@@ -1175,7 +1768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
         <v>44</v>
       </c>
@@ -1189,7 +1782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="5:8">
       <c r="E11" t="s">
         <v>46</v>
       </c>
@@ -1203,7 +1796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="5:8">
       <c r="E12" t="s">
         <v>48</v>
       </c>
@@ -1217,7 +1810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="5:8">
       <c r="E13" t="s">
         <v>50</v>
       </c>
@@ -1231,7 +1824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="5:8">
       <c r="E14" t="s">
         <v>52</v>
       </c>
@@ -1245,7 +1838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="5:8">
       <c r="E15" t="s">
         <v>54</v>
       </c>
@@ -1259,7 +1852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="5:8">
       <c r="E16" t="s">
         <v>56</v>
       </c>
@@ -1390,7 +1983,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
         <v>73</v>
@@ -1432,27 +2025,27 @@
         <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="5:8">
       <c r="E29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="5:8">
@@ -1502,7 +2095,7 @@
         <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
         <v>88</v>
@@ -1530,227 +2123,242 @@
         <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="H37" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="H38" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F39" t="s">
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="H39" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="H40" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
         <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F42" t="s">
         <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="H42" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H43" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H46" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H47" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F48" t="s">
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H48" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s">
         <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H49" t="s">
-        <v>119</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8">
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
@@ -1761,243 +2369,243 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8">
       <c r="E11" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8">
       <c r="E12" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8">
       <c r="E13" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8">
       <c r="E14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" t="s">
         <v>139</v>
       </c>
-      <c r="F14" t="s">
-        <v>124</v>
-      </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8">
       <c r="E15" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8">
       <c r="E16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="5:8">
       <c r="E21" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="5:8">
       <c r="E23" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="5:8">
@@ -2005,17 +2613,17 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H24" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KanbanWork\agile-service\src\main\resources\script\db\data_init\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B79041-4C3A-49D7-95BB-7874839B52FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19365" windowHeight="8970" tabRatio="990" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8970" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="182">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -368,9 +374,6 @@
     <t>epic_color_h</t>
   </si>
   <si>
-    <t>#000000</t>
-  </si>
-  <si>
     <t>灰色</t>
   </si>
   <si>
@@ -567,19 +570,17 @@
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>rgba(0,0,0,0.36)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -594,352 +595,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -947,252 +622,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -1201,62 +634,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1514,15 +903,15 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1531,8 +920,9 @@
     <col min="1" max="1025" width="9.75"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -1541,15 +931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="9.75"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -1574,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="4:7">
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -1585,7 +974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="4:7">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="4:7">
       <c r="E10" t="s">
         <v>10</v>
       </c>
@@ -1607,7 +996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="4:7">
       <c r="E11" t="s">
         <v>13</v>
       </c>
@@ -1618,7 +1007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="4:7">
       <c r="E12" t="s">
         <v>16</v>
       </c>
@@ -1629,7 +1018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="4:7">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -1640,7 +1029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="4:7">
       <c r="E14" t="s">
         <v>22</v>
       </c>
@@ -1651,7 +1040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="4:7">
       <c r="E15" t="s">
         <v>25</v>
       </c>
@@ -1662,7 +1051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="4:7">
       <c r="E16" t="s">
         <v>28</v>
       </c>
@@ -1696,8 +1085,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -1706,15 +1096,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -1740,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
         <v>40</v>
       </c>
@@ -1754,7 +1143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>42</v>
       </c>
@@ -1768,7 +1157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="4:8">
       <c r="E10" t="s">
         <v>44</v>
       </c>
@@ -1782,7 +1171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" spans="4:8">
       <c r="E11" t="s">
         <v>46</v>
       </c>
@@ -1796,7 +1185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="4:8">
       <c r="E12" t="s">
         <v>48</v>
       </c>
@@ -1810,7 +1199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="4:8">
       <c r="E13" t="s">
         <v>50</v>
       </c>
@@ -1824,7 +1213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="5:8">
+    <row r="14" spans="4:8">
       <c r="E14" t="s">
         <v>52</v>
       </c>
@@ -1838,7 +1227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="5:8">
+    <row r="15" spans="4:8">
       <c r="E15" t="s">
         <v>54</v>
       </c>
@@ -1852,7 +1241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="5:8">
+    <row r="16" spans="4:8">
       <c r="E16" t="s">
         <v>56</v>
       </c>
@@ -2238,15 +1627,15 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" t="s">
         <v>115</v>
-      </c>
-      <c r="H43" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
@@ -2255,12 +1644,12 @@
         <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
@@ -2269,12 +1658,12 @@
         <v>94</v>
       </c>
       <c r="H45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
@@ -2283,82 +1672,81 @@
         <v>112</v>
       </c>
       <c r="H46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
       </c>
       <c r="G47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" t="s">
         <v>124</v>
-      </c>
-      <c r="H47" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
         <v>31</v>
       </c>
       <c r="G48" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" t="s">
         <v>127</v>
-      </c>
-      <c r="H48" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F49" t="s">
         <v>31</v>
       </c>
       <c r="G49" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" t="s">
         <v>130</v>
-      </c>
-      <c r="H49" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="50" spans="5:8">
       <c r="E50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s">
         <v>31</v>
       </c>
       <c r="G50" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" t="s">
         <v>133</v>
       </c>
-      <c r="H50" t="s">
-        <v>134</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
@@ -2369,243 +1757,243 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
         <v>135</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>136</v>
-      </c>
-      <c r="F7" t="s">
-        <v>137</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="5:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
         <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
         <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="E10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="10" spans="5:8">
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" t="s">
         <v>143</v>
       </c>
-      <c r="F10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>144</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" spans="4:8">
+      <c r="E11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="5:8">
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" t="s">
         <v>146</v>
       </c>
-      <c r="F11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>147</v>
       </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="12" spans="4:8">
+      <c r="E12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" spans="5:8">
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>149</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>150</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="E13" t="s">
         <v>151</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F13" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="13" spans="5:8">
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>152</v>
       </c>
-      <c r="F13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="E14" t="s">
         <v>153</v>
       </c>
-      <c r="H13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="5:8">
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
         <v>154</v>
       </c>
-      <c r="F14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>155</v>
       </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="15" spans="4:8">
+      <c r="E15" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="15" spans="5:8">
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
         <v>157</v>
       </c>
-      <c r="F15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>158</v>
       </c>
-      <c r="H15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="5:8">
+    </row>
+    <row r="16" spans="4:8">
       <c r="E16" t="s">
         <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" t="s">
         <v>161</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>162</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>163</v>
-      </c>
-      <c r="H17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
         <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
         <v>167</v>
       </c>
-      <c r="F19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>168</v>
-      </c>
-      <c r="H19" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
         <v>170</v>
       </c>
-      <c r="F20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>171</v>
-      </c>
-      <c r="H20" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="5:8">
       <c r="E21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" t="s">
         <v>173</v>
       </c>
-      <c r="F21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>174</v>
-      </c>
-      <c r="H21" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
         <v>176</v>
       </c>
-      <c r="F22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>177</v>
-      </c>
-      <c r="H22" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="23" spans="5:8">
       <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" t="s">
         <v>179</v>
       </c>
-      <c r="F23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" t="s">
-        <v>180</v>
-      </c>
       <c r="H23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="5:8">
@@ -2613,17 +2001,17 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H24" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KanbanWork\agile-service\src\main\resources\script\db\data_init\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B79041-4C3A-49D7-95BB-7874839B52FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8970" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="agile_lookup_type" sheetId="10" r:id="rId2"/>
-    <sheet name="agile_lookup_value" sheetId="11" r:id="rId3"/>
-    <sheet name="agile_quick_filter_field" sheetId="12" r:id="rId4"/>
+    <sheet name="README" sheetId="1" r:id="rId4"/>
+    <sheet name="agile_lookup_type" sheetId="2" r:id="rId5"/>
+    <sheet name="agile_lookup_value" sheetId="3" r:id="rId6"/>
+    <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId7"/>
+    <sheet name="agile_message" sheetId="5" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-  </definedNames>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -374,6 +362,9 @@
     <t>epic_color_h</t>
   </si>
   <si>
+    <t>rgba(0,0,0,0.36)</t>
+  </si>
+  <si>
     <t>灰色</t>
   </si>
   <si>
@@ -572,49 +563,98 @@
     <t>类型</t>
   </si>
   <si>
-    <t>rgba(0,0,0,0.36)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>agile_message</t>
+  </si>
+  <si>
+    <t>#event</t>
+  </si>
+  <si>
+    <t>#notice_type</t>
+  </si>
+  <si>
+    <t>notice_name</t>
+  </si>
+  <si>
+    <t>is_enable</t>
+  </si>
+  <si>
+    <t>issue_created</t>
+  </si>
+  <si>
+    <t>assigneer</t>
+  </si>
+  <si>
+    <t>当前处理人</t>
+  </si>
+  <si>
+    <t>project_owner</t>
+  </si>
+  <si>
+    <t>项目管理员</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>issue_assigneed</t>
+  </si>
+  <si>
+    <t>issue_solved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <color indexed="8"/>
+      <name val="DejaVu Serif"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="15"/>
+      <color indexed="8"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -622,50 +662,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="top"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -686,82 +773,22 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -773,76 +800,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -853,1165 +870,2869 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" width="9.75"/>
+    <col min="1" max="1" width="9.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85156" style="1" customWidth="1"/>
+    <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <sheetData>
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:G18"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="9.75"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="30.5"/>
-    <col min="7" max="7" width="17.625"/>
-    <col min="8" max="8" width="11"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="1025" width="9.75"/>
+    <col min="1" max="1" width="9.85156" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85156" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.6719" style="3" customWidth="1"/>
+    <col min="8" max="256" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
-      <c r="D7" s="1" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="4">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
-      <c r="E8" t="s">
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
-      <c r="E9" t="s">
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
-      <c r="E10" t="s">
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
-      <c r="E11" t="s">
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
-      <c r="E12" t="s">
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
-      <c r="E13" t="s">
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
-      <c r="E14" t="s">
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
-      <c r="E15" t="s">
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
-      <c r="E16" t="s">
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="5:7">
-      <c r="E17" t="s">
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="5:7">
-      <c r="E18" t="s">
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="5">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:H50"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1"/>
-    <col min="7" max="7" width="29.625" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.3516" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29.6719" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.1719" style="6" customWidth="1"/>
+    <col min="9" max="256" width="9" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
-      <c r="D7" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
-      <c r="E8" t="s">
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
-      <c r="E9" t="s">
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
-      <c r="E10" t="s">
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
-      <c r="E11" t="s">
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="5">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
-      <c r="E12" t="s">
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
-      <c r="E13" t="s">
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="5">
         <v>51</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
-      <c r="E14" t="s">
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
-      <c r="E15" t="s">
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="5">
         <v>55</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
-      <c r="E16" t="s">
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="5">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="5:8">
-      <c r="E17" t="s">
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="5">
         <v>58</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="5:8">
-      <c r="E18" t="s">
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="5">
         <v>60</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="5:8">
-      <c r="E19" t="s">
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="5">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
-      <c r="E20" t="s">
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="5">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="5">
         <v>63</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="5:8">
-      <c r="E21" t="s">
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="5">
         <v>64</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="s" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="5:8">
-      <c r="E22" t="s">
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="s" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="5:8">
-      <c r="E23" t="s">
+    <row r="23" ht="17" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="5">
         <v>69</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="s" s="5">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="5:8">
-      <c r="E24" t="s">
+    <row r="24" ht="17" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="5">
         <v>70</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="5">
         <v>71</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" t="s" s="5">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="5:8">
-      <c r="E25" t="s">
+    <row r="25" ht="17" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" t="s" s="5">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:8">
-      <c r="E26" t="s">
+    <row r="26" ht="17" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="5">
         <v>74</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" t="s" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="5:8">
-      <c r="E27" t="s">
+    <row r="27" ht="17" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="5">
         <v>77</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" t="s" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="5:8">
-      <c r="E28" t="s">
+    <row r="28" ht="17" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="5">
         <v>78</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="5">
         <v>79</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" t="s" s="5">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="5:8">
-      <c r="E29" t="s">
+    <row r="29" ht="17" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" t="s" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="5:8">
-      <c r="E30" t="s">
+    <row r="30" ht="17" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" t="s" s="5">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="5:8">
-      <c r="E31" t="s">
+    <row r="31" ht="17" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="5">
         <v>83</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" t="s" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="5:8">
-      <c r="E32" t="s">
+    <row r="32" ht="17" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" t="s" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="5:8">
-      <c r="E33" t="s">
+    <row r="33" ht="17" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="5">
         <v>87</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" t="s" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="5:8">
-      <c r="E34" t="s">
+    <row r="34" ht="17" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" t="s" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="5:8">
-      <c r="E35" t="s">
+    <row r="35" ht="17" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" t="s" s="5">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
-      <c r="E36" t="s">
+    <row r="36" ht="17" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="5">
         <v>93</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" t="s" s="5">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="5:8">
-      <c r="E37" t="s">
+    <row r="37" ht="17" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="s" s="5">
         <v>97</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" t="s" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="5:8">
-      <c r="E38" t="s">
+    <row r="38" ht="17" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="5">
         <v>99</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" t="s" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
-      <c r="E39" t="s">
+    <row r="39" ht="17" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="5">
         <v>102</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" t="s" s="5">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
-      <c r="E40" t="s">
+    <row r="40" ht="17" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="5">
         <v>105</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" t="s" s="5">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
-      <c r="E41" t="s">
+    <row r="41" ht="17" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="5">
         <v>108</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="5">
         <v>109</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" t="s" s="5">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
-      <c r="E42" t="s">
+    <row r="42" ht="17" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="5">
         <v>111</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" t="s" s="5">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
-      <c r="E43" t="s">
+    <row r="43" ht="17" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="5">
         <v>114</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G43" t="s">
-        <v>181</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s" s="5">
         <v>115</v>
       </c>
-    </row>
-    <row r="44" spans="5:8">
-      <c r="E44" t="s">
+      <c r="H43" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="F44" t="s">
+    </row>
+    <row r="44" ht="17" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="F44" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="H44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="5:8">
-      <c r="E45" t="s">
+      <c r="H44" t="s" s="5">
         <v>118</v>
       </c>
-      <c r="F45" t="s">
+    </row>
+    <row r="45" ht="17" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="5">
+        <v>119</v>
+      </c>
+      <c r="F45" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="H45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="5:8">
-      <c r="E46" t="s">
+      <c r="H45" t="s" s="5">
         <v>120</v>
       </c>
-      <c r="F46" t="s">
+    </row>
+    <row r="46" ht="17" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="5">
+        <v>121</v>
+      </c>
+      <c r="F46" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="H46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="5:8">
-      <c r="E47" t="s">
+      <c r="H46" t="s" s="5">
         <v>122</v>
       </c>
-      <c r="F47" t="s">
+    </row>
+    <row r="47" ht="17" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="5">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s" s="5">
         <v>124</v>
       </c>
-    </row>
-    <row r="48" spans="5:8">
-      <c r="E48" t="s">
+      <c r="H47" t="s" s="5">
         <v>125</v>
       </c>
-      <c r="F48" t="s">
+    </row>
+    <row r="48" ht="17" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="5">
+        <v>126</v>
+      </c>
+      <c r="F48" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G48" t="s">
-        <v>126</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s" s="5">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="5:8">
-      <c r="E49" t="s">
+      <c r="H48" t="s" s="5">
         <v>128</v>
       </c>
-      <c r="F49" t="s">
+    </row>
+    <row r="49" ht="17" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="5">
+        <v>129</v>
+      </c>
+      <c r="F49" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G49" t="s">
-        <v>129</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s" s="5">
         <v>130</v>
       </c>
-    </row>
-    <row r="50" spans="5:8">
-      <c r="E50" t="s">
+      <c r="H49" t="s" s="5">
         <v>131</v>
       </c>
-      <c r="F50" t="s">
+    </row>
+    <row r="50" ht="17" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="F50" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G50" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" t="s" s="5">
         <v>133</v>
       </c>
+      <c r="H50" t="s" s="5">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:H24"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.1719" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.8516" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.3516" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="7" customWidth="1"/>
+    <col min="9" max="256" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="5">
         <v>135</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="5">
         <v>136</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s" s="5">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
-      <c r="E8" t="s">
+      <c r="H7" t="s" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="F8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G8" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="G9" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="5">
+        <v>143</v>
+      </c>
+      <c r="F10" t="s" s="5">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G10" t="s" s="5">
+        <v>144</v>
+      </c>
+      <c r="H10" t="s" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G11" t="s" s="5">
+        <v>147</v>
+      </c>
+      <c r="H11" t="s" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="5">
+        <v>149</v>
+      </c>
+      <c r="F12" t="s" s="5">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="H12" t="s" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="5">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>150</v>
+      </c>
+      <c r="G13" t="s" s="5">
+        <v>153</v>
+      </c>
+      <c r="H13" t="s" s="5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="5">
+        <v>154</v>
+      </c>
+      <c r="F14" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s" s="5">
+        <v>155</v>
+      </c>
+      <c r="H14" t="s" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="5">
+        <v>157</v>
+      </c>
+      <c r="F15" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s" s="5">
+        <v>158</v>
+      </c>
+      <c r="H15" t="s" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="5">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="5">
+        <v>161</v>
+      </c>
+      <c r="F17" t="s" s="5">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s" s="5">
+        <v>163</v>
+      </c>
+      <c r="H17" t="s" s="5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="5">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s" s="5">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="5">
+        <v>167</v>
+      </c>
+      <c r="F19" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G19" t="s" s="5">
+        <v>168</v>
+      </c>
+      <c r="H19" t="s" s="5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="5">
+        <v>170</v>
+      </c>
+      <c r="F20" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G20" t="s" s="5">
+        <v>171</v>
+      </c>
+      <c r="H20" t="s" s="5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="5">
+        <v>173</v>
+      </c>
+      <c r="F21" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G21" t="s" s="5">
+        <v>174</v>
+      </c>
+      <c r="H21" t="s" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="5">
+        <v>176</v>
+      </c>
+      <c r="F22" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s" s="5">
+        <v>177</v>
+      </c>
+      <c r="H22" t="s" s="5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" ht="17" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s" s="5">
+        <v>180</v>
+      </c>
+      <c r="H23" t="s" s="5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s" s="5">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="E10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G24" t="s" s="5">
+        <v>181</v>
+      </c>
+      <c r="H24" t="s" s="5">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.85156" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.85156" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.6719" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.6719" style="8" customWidth="1"/>
+    <col min="9" max="256" width="9" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="4">
+        <v>182</v>
+      </c>
+      <c r="E7" t="s" s="5">
+        <v>183</v>
+      </c>
+      <c r="F7" t="s" s="5">
+        <v>184</v>
+      </c>
+      <c r="G7" t="s" s="5">
+        <v>185</v>
+      </c>
+      <c r="H7" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="5">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="G8" t="s" s="5">
+        <v>189</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="5">
+        <v>187</v>
+      </c>
+      <c r="F9" t="s" s="5">
         <v>146</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G9" t="s" s="5">
         <v>147</v>
       </c>
-    </row>
-    <row r="12" spans="4:8">
-      <c r="E12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="E13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
-      <c r="E14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
-      <c r="E15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8">
-      <c r="E17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8">
-      <c r="E18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8">
-      <c r="E19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8">
-      <c r="E20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8">
-      <c r="E21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8">
-      <c r="E22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8">
-      <c r="E23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8">
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H24" t="s">
-        <v>39</v>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="5">
+        <v>187</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="G10" t="s" s="5">
+        <v>191</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="5">
+        <v>187</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>192</v>
+      </c>
+      <c r="G11" t="s" s="5">
+        <v>193</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="5">
+        <v>194</v>
+      </c>
+      <c r="F12" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="G12" t="s" s="5">
+        <v>189</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="5">
+        <v>194</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s" s="5">
+        <v>147</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="5">
+        <v>194</v>
+      </c>
+      <c r="F14" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="G14" t="s" s="5">
+        <v>191</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="F15" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="G15" t="s" s="5">
+        <v>189</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="F16" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s" s="5">
+        <v>147</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="G17" t="s" s="5">
+        <v>191</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>issue_assigneed</t>
+  </si>
+  <si>
+    <t>Users</t>
   </si>
   <si>
     <t>issue_solved</t>
@@ -3450,7 +3453,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3679,16 +3682,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="5">
+        <v>194</v>
+      </c>
+      <c r="F15" t="s" s="5">
         <v>195</v>
       </c>
-      <c r="F15" t="s" s="5">
-        <v>188</v>
-      </c>
       <c r="G15" t="s" s="5">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1">
@@ -3697,13 +3700,13 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="5">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s" s="5">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s" s="5">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
@@ -3715,16 +3718,52 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="5">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F17" t="s" s="5">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s" s="5">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="H17" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="5">
+        <v>196</v>
+      </c>
+      <c r="F18" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s" s="5">
+        <v>191</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="5">
+        <v>196</v>
+      </c>
+      <c r="F19" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s" s="5">
+        <v>193</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -590,7 +590,7 @@
     <t>project_owner</t>
   </si>
   <si>
-    <t>项目管理员</t>
+    <t>项目所有者</t>
   </si>
   <si>
     <t>users</t>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>issue_assigneed</t>
-  </si>
-  <si>
-    <t>Users</t>
   </si>
   <si>
     <t>issue_solved</t>
@@ -3601,7 +3598,7 @@
         <v>191</v>
       </c>
       <c r="H10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1">
@@ -3673,7 +3670,7 @@
         <v>191</v>
       </c>
       <c r="H14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1">
@@ -3685,7 +3682,7 @@
         <v>194</v>
       </c>
       <c r="F15" t="s" s="5">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G15" t="s" s="5">
         <v>193</v>
@@ -3700,7 +3697,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="5">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F16" t="s" s="5">
         <v>188</v>
@@ -3718,7 +3715,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="5">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17" t="s" s="5">
         <v>146</v>
@@ -3736,7 +3733,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="5">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18" t="s" s="5">
         <v>190</v>
@@ -3745,7 +3742,7 @@
         <v>191</v>
       </c>
       <c r="H18" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="17" customHeight="1">
@@ -3754,10 +3751,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="5">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F19" t="s" s="5">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s" s="5">
         <v>193</v>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -3580,7 +3580,7 @@
         <v>147</v>
       </c>
       <c r="H9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1">

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinghuang/Desktop/workSpace/agileWork/agile-service/src/main/resources/script/db/data_init/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05E35D7D-9468-C44B-B17F-88779B728E15}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" r:id="rId4"/>
-    <sheet name="agile_lookup_type" sheetId="2" r:id="rId5"/>
-    <sheet name="agile_lookup_value" sheetId="3" r:id="rId6"/>
-    <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId7"/>
-    <sheet name="agile_message" sheetId="5" r:id="rId8"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
+    <sheet name="agile_lookup_type" sheetId="2" r:id="rId2"/>
+    <sheet name="agile_lookup_value" sheetId="3" r:id="rId3"/>
+    <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId4"/>
+    <sheet name="agile_message" sheetId="5" r:id="rId5"/>
+    <sheet name="agile_work_calendar_holiday_ref" sheetId="7" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="244">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -603,41 +613,230 @@
   </si>
   <si>
     <t>issue_solved</t>
+  </si>
+  <si>
+    <t>agile_work_calendar_holiday_ref</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#holiday</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>除夕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清明节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-12-30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2-15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2-16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2-17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2-18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2-19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2-20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2-21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2-24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-4-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-4-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-4-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-4-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-4-28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-4-29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-4-30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-5-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-6-16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-6-17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-6-18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-9-22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-9-23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-9-24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-9-29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-9-30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DejaVu Serif"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -679,67 +878,108 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -941,7 +1181,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -960,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +1230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,9 +1451,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1230,7 +1476,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1249,7 +1495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1275,7 +1521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1301,7 +1547,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1573,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,7 +1599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,7 +1625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1405,7 +1651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1431,7 +1677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1457,7 +1703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1483,7 +1729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1496,9 +1742,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1512,7 +1764,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1531,7 +1783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1561,7 +1813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1587,7 +1839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1613,7 +1865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1639,7 +1891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1665,7 +1917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1691,7 +1943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1717,7 +1969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1743,7 +1995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1769,7 +2021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1782,96 +2034,99 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:5" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:5" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1879,8 +2134,9 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -1889,24 +2145,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85156" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.85156" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="3" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.6719" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
     <col min="8" max="256" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:7" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1915,7 +2170,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:7" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1924,7 +2179,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:7" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1933,7 +2188,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1942,7 +2197,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:7" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1951,7 +2206,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1960,191 +2215,192 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="4">
+      <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:7" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s" s="5">
+      <c r="G15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s" s="5">
+      <c r="G16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1">
+    <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s" s="5">
+      <c r="G17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1">
+    <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" s="5" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2153,25 +2409,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6" customWidth="1"/>
+    <col min="1" max="3" width="9" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="27" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.3516" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29.6719" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.1719" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="6" customWidth="1"/>
     <col min="9" max="256" width="9" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2181,7 +2435,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2191,7 +2445,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2201,7 +2455,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2211,7 +2465,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2221,7 +2475,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2231,803 +2485,804 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s" s="5">
+      <c r="H7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H8" t="s" s="5">
+      <c r="H8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H9" t="s" s="5">
+      <c r="H9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H10" t="s" s="5">
+      <c r="H10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s" s="5">
+      <c r="H11" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H12" t="s" s="5">
+      <c r="H12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H13" t="s" s="5">
+      <c r="H13" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H14" t="s" s="5">
+      <c r="H14" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s" s="5">
+      <c r="G15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H15" t="s" s="5">
+      <c r="H15" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s" s="5">
+      <c r="G16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s" s="5">
+      <c r="H16" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1">
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s" s="5">
+      <c r="G17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H17" t="s" s="5">
+      <c r="H17" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1">
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H18" t="s" s="5">
+      <c r="H18" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1">
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" t="s" s="5">
+      <c r="E19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s" s="5">
+      <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" t="s" s="5">
+      <c r="G19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H19" t="s" s="5">
+      <c r="H19" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1">
+    <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" t="s" s="5">
+      <c r="E20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s" s="5">
+      <c r="F20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s" s="5">
+      <c r="G20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H20" t="s" s="5">
+      <c r="H20" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1">
+    <row r="21" spans="1:8" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" t="s" s="5">
+      <c r="E21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F21" t="s" s="5">
+      <c r="F21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G21" t="s" s="5">
+      <c r="G21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H21" t="s" s="5">
+      <c r="H21" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1">
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" t="s" s="5">
+      <c r="E22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F22" t="s" s="5">
+      <c r="F22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="s" s="5">
+      <c r="G22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H22" t="s" s="5">
+      <c r="H22" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1">
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" t="s" s="5">
+      <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F23" t="s" s="5">
+      <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="s" s="5">
+      <c r="G23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H23" t="s" s="5">
+      <c r="H23" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1">
+    <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" t="s" s="5">
+      <c r="E24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F24" t="s" s="5">
+      <c r="F24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G24" t="s" s="5">
+      <c r="G24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H24" t="s" s="5">
+      <c r="H24" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1">
+    <row r="25" spans="1:8" ht="17" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" t="s" s="5">
+      <c r="E25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F25" t="s" s="5">
+      <c r="F25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G25" t="s" s="5">
+      <c r="G25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H25" t="s" s="5">
+      <c r="H25" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1">
+    <row r="26" spans="1:8" ht="17" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" t="s" s="5">
+      <c r="E26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F26" t="s" s="5">
+      <c r="F26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G26" t="s" s="5">
+      <c r="G26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H26" t="s" s="5">
+      <c r="H26" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1">
+    <row r="27" spans="1:8" ht="17" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" t="s" s="5">
+      <c r="E27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F27" t="s" s="5">
+      <c r="F27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G27" t="s" s="5">
+      <c r="G27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H27" t="s" s="5">
+      <c r="H27" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1">
+    <row r="28" spans="1:8" ht="17" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" t="s" s="5">
+      <c r="E28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F28" t="s" s="5">
+      <c r="F28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G28" t="s" s="5">
+      <c r="G28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H28" t="s" s="5">
+      <c r="H28" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1">
+    <row r="29" spans="1:8" ht="17" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" t="s" s="5">
+      <c r="E29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F29" t="s" s="5">
+      <c r="F29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G29" t="s" s="5">
+      <c r="G29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H29" t="s" s="5">
+      <c r="H29" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1">
+    <row r="30" spans="1:8" ht="17" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" t="s" s="5">
+      <c r="E30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F30" t="s" s="5">
+      <c r="F30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G30" t="s" s="5">
+      <c r="G30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H30" t="s" s="5">
+      <c r="H30" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1">
+    <row r="31" spans="1:8" ht="17" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" t="s" s="5">
+      <c r="E31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F31" t="s" s="5">
+      <c r="F31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G31" t="s" s="5">
+      <c r="G31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H31" t="s" s="5">
+      <c r="H31" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1">
+    <row r="32" spans="1:8" ht="17" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" t="s" s="5">
+      <c r="E32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F32" t="s" s="5">
+      <c r="F32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G32" t="s" s="5">
+      <c r="G32" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H32" t="s" s="5">
+      <c r="H32" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1">
+    <row r="33" spans="1:8" ht="17" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" t="s" s="5">
+      <c r="E33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F33" t="s" s="5">
+      <c r="F33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G33" t="s" s="5">
+      <c r="G33" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H33" t="s" s="5">
+      <c r="H33" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1">
+    <row r="34" spans="1:8" ht="17" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" t="s" s="5">
+      <c r="E34" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F34" t="s" s="5">
+      <c r="F34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G34" t="s" s="5">
+      <c r="G34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H34" t="s" s="5">
+      <c r="H34" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1">
+    <row r="35" spans="1:8" ht="17" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" t="s" s="5">
+      <c r="E35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F35" t="s" s="5">
+      <c r="F35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G35" t="s" s="5">
+      <c r="G35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H35" t="s" s="5">
+      <c r="H35" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1">
+    <row r="36" spans="1:8" ht="17" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" t="s" s="5">
+      <c r="E36" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F36" t="s" s="5">
+      <c r="F36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G36" t="s" s="5">
+      <c r="G36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H36" t="s" s="5">
+      <c r="H36" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1">
+    <row r="37" spans="1:8" ht="17" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" t="s" s="5">
+      <c r="E37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F37" t="s" s="5">
+      <c r="F37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G37" t="s" s="5">
+      <c r="G37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H37" t="s" s="5">
+      <c r="H37" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1">
+    <row r="38" spans="1:8" ht="17" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" t="s" s="5">
+      <c r="E38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F38" t="s" s="5">
+      <c r="F38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G38" t="s" s="5">
+      <c r="G38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H38" t="s" s="5">
+      <c r="H38" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1">
+    <row r="39" spans="1:8" ht="17" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" t="s" s="5">
+      <c r="E39" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F39" t="s" s="5">
+      <c r="F39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G39" t="s" s="5">
+      <c r="G39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H39" t="s" s="5">
+      <c r="H39" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1">
+    <row r="40" spans="1:8" ht="17" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" t="s" s="5">
+      <c r="E40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F40" t="s" s="5">
+      <c r="F40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G40" t="s" s="5">
+      <c r="G40" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H40" t="s" s="5">
+      <c r="H40" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1">
+    <row r="41" spans="1:8" ht="17" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" t="s" s="5">
+      <c r="E41" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F41" t="s" s="5">
+      <c r="F41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G41" t="s" s="5">
+      <c r="G41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H41" t="s" s="5">
+      <c r="H41" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1">
+    <row r="42" spans="1:8" ht="17" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" t="s" s="5">
+      <c r="E42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F42" t="s" s="5">
+      <c r="F42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G42" t="s" s="5">
+      <c r="G42" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H42" t="s" s="5">
+      <c r="H42" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1">
+    <row r="43" spans="1:8" ht="17" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" t="s" s="5">
+      <c r="E43" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F43" t="s" s="5">
+      <c r="F43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G43" t="s" s="5">
+      <c r="G43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H43" t="s" s="5">
+      <c r="H43" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" ht="17" customHeight="1">
+    <row r="44" spans="1:8" ht="17" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" t="s" s="5">
+      <c r="E44" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F44" t="s" s="5">
+      <c r="F44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G44" t="s" s="5">
+      <c r="G44" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H44" t="s" s="5">
+      <c r="H44" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" ht="17" customHeight="1">
+    <row r="45" spans="1:8" ht="17" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" t="s" s="5">
+      <c r="E45" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F45" t="s" s="5">
+      <c r="F45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G45" t="s" s="5">
+      <c r="G45" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H45" t="s" s="5">
+      <c r="H45" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" ht="17" customHeight="1">
+    <row r="46" spans="1:8" ht="17" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" t="s" s="5">
+      <c r="E46" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F46" t="s" s="5">
+      <c r="F46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G46" t="s" s="5">
+      <c r="G46" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H46" t="s" s="5">
+      <c r="H46" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" ht="17" customHeight="1">
+    <row r="47" spans="1:8" ht="17" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" t="s" s="5">
+      <c r="E47" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F47" t="s" s="5">
+      <c r="F47" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G47" t="s" s="5">
+      <c r="G47" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H47" t="s" s="5">
+      <c r="H47" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" ht="17" customHeight="1">
+    <row r="48" spans="1:8" ht="17" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" t="s" s="5">
+      <c r="E48" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F48" t="s" s="5">
+      <c r="F48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G48" t="s" s="5">
+      <c r="G48" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H48" t="s" s="5">
+      <c r="H48" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" ht="17" customHeight="1">
+    <row r="49" spans="1:8" ht="17" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" t="s" s="5">
+      <c r="E49" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F49" t="s" s="5">
+      <c r="F49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G49" t="s" s="5">
+      <c r="G49" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H49" t="s" s="5">
+      <c r="H49" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" ht="17" customHeight="1">
+    <row r="50" spans="1:8" ht="17" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" t="s" s="5">
+      <c r="E50" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F50" t="s" s="5">
+      <c r="F50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G50" t="s" s="5">
+      <c r="G50" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H50" t="s" s="5">
+      <c r="H50" s="5" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3035,25 +3290,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.1719" style="7" customWidth="1"/>
+    <col min="1" max="3" width="9" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.8516" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.3516" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="7" customWidth="1"/>
     <col min="9" max="256" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3063,7 +3316,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3073,7 +3326,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3083,7 +3336,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3093,7 +3346,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3103,7 +3356,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3113,335 +3366,336 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s" s="5">
+      <c r="H7" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H8" t="s" s="5">
+      <c r="H8" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s" s="5">
+      <c r="H9" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H10" t="s" s="5">
+      <c r="H10" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H11" t="s" s="5">
+      <c r="H11" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H12" t="s" s="5">
+      <c r="H12" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H13" t="s" s="5">
+      <c r="H13" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H14" t="s" s="5">
+      <c r="H14" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G15" t="s" s="5">
+      <c r="G15" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H15" t="s" s="5">
+      <c r="H15" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G16" t="s" s="5">
+      <c r="G16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H16" t="s" s="5">
+      <c r="H16" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1">
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G17" t="s" s="5">
+      <c r="G17" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H17" t="s" s="5">
+      <c r="H17" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1">
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H18" t="s" s="5">
+      <c r="H18" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1">
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" t="s" s="5">
+      <c r="E19" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F19" t="s" s="5">
+      <c r="F19" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G19" t="s" s="5">
+      <c r="G19" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H19" t="s" s="5">
+      <c r="H19" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1">
+    <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" t="s" s="5">
+      <c r="E20" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F20" t="s" s="5">
+      <c r="F20" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G20" t="s" s="5">
+      <c r="G20" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H20" t="s" s="5">
+      <c r="H20" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1">
+    <row r="21" spans="1:8" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" t="s" s="5">
+      <c r="E21" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F21" t="s" s="5">
+      <c r="F21" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G21" t="s" s="5">
+      <c r="G21" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H21" t="s" s="5">
+      <c r="H21" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1">
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" t="s" s="5">
+      <c r="E22" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F22" t="s" s="5">
+      <c r="F22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G22" t="s" s="5">
+      <c r="G22" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H22" t="s" s="5">
+      <c r="H22" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1">
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" t="s" s="5">
+      <c r="E23" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F23" t="s" s="5">
+      <c r="F23" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G23" t="s" s="5">
+      <c r="G23" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H23" t="s" s="5">
+      <c r="H23" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1">
+    <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" t="s" s="5">
+      <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F24" t="s" s="5">
+      <c r="F24" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G24" t="s" s="5">
+      <c r="G24" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H24" t="s" s="5">
+      <c r="H24" s="5" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3449,25 +3703,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85156" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.85156" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="8" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.6719" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.6719" style="8" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="8" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" style="8" customWidth="1"/>
     <col min="9" max="256" width="9" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3477,7 +3727,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3487,7 +3737,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3497,7 +3747,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3507,7 +3757,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3517,7 +3767,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3527,236 +3777,236 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="4">
+      <c r="D7" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H7" t="s" s="5">
+      <c r="H7" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
         <v>189</v>
       </c>
       <c r="H8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" s="5" t="s">
         <v>147</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" s="5" t="s">
         <v>191</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" s="5" t="s">
         <v>193</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" s="5" t="s">
         <v>189</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" s="5" t="s">
         <v>147</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" s="5" t="s">
         <v>191</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G15" t="s" s="5">
+      <c r="G15" s="5" t="s">
         <v>193</v>
       </c>
       <c r="H15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G16" t="s" s="5">
+      <c r="G16" s="5" t="s">
         <v>189</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1">
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G17" t="s" s="5">
+      <c r="G17" s="5" t="s">
         <v>147</v>
       </c>
       <c r="H17" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1">
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" s="5" t="s">
         <v>191</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1">
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" t="s" s="5">
+      <c r="E19" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F19" t="s" s="5">
+      <c r="F19" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G19" t="s" s="5">
+      <c r="G19" s="5" t="s">
         <v>193</v>
       </c>
       <c r="H19" s="9">
@@ -3764,11 +4014,459 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4728A4-4A3E-6B42-A1A4-CDCA446D67FE}">
+  <dimension ref="D7:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8">
+      <c r="D7" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="F8" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="F9" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="E10" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="F11" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="E12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="E13" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="F14" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="F15" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="F16" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="F17" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="F18" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="F19" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="F21" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="F22" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="F23" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="F24" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="F25" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="F26" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="F28" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="F29" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="F31" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="F32" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="F34" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="F35" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="F37" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="F38" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="F39" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="F40" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="F41" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="F42" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>2018</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinghuang/Desktop/workSpace/agileWork/agile-service/src/main/resources/script/db/data_init/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05E35D7D-9468-C44B-B17F-88779B728E15}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="agile_lookup_type" sheetId="2" r:id="rId2"/>
-    <sheet name="agile_lookup_value" sheetId="3" r:id="rId3"/>
-    <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId4"/>
-    <sheet name="agile_message" sheetId="5" r:id="rId5"/>
-    <sheet name="agile_work_calendar_holiday_ref" sheetId="7" r:id="rId6"/>
+    <sheet name="README" sheetId="1" r:id="rId4"/>
+    <sheet name="agile_lookup_type" sheetId="2" r:id="rId5"/>
+    <sheet name="agile_lookup_value" sheetId="3" r:id="rId6"/>
+    <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId7"/>
+    <sheet name="agile_message" sheetId="5" r:id="rId8"/>
+    <sheet name="agile_work_calendar_holiday_ref" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -450,126 +441,126 @@
     <t>assignee_id</t>
   </si>
   <si>
+    <t>priority_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>status_id</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>报告人</t>
+  </si>
+  <si>
+    <t>reporter_id</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>created_user</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>last_updated_user</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
+    <t>story_points</t>
+  </si>
+  <si>
+    <t>remain_time</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>剩余时间</t>
+  </si>
+  <si>
+    <t>remaining_time</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>epic_id</t>
+  </si>
+  <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>冲刺</t>
+  </si>
+  <si>
+    <t>sprint_id</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>label_id</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>component_id</t>
+  </si>
+  <si>
+    <t>fix_version</t>
+  </si>
+  <si>
+    <t>修复的版本</t>
+  </si>
+  <si>
+    <t>version_id</t>
+  </si>
+  <si>
+    <t>influence_version</t>
+  </si>
+  <si>
+    <t>影响的版本</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
-    <t>priority_code</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>status_id</t>
-  </si>
-  <si>
-    <t>reporter</t>
-  </si>
-  <si>
-    <t>报告人</t>
-  </si>
-  <si>
-    <t>reporter_id</t>
-  </si>
-  <si>
-    <t>creation_date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>last_update_date</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>created_user</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>created_by</t>
-  </si>
-  <si>
-    <t>last_updated_user</t>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
-    <t>last_updated_by</t>
-  </si>
-  <si>
-    <t>story_points</t>
-  </si>
-  <si>
-    <t>remain_time</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>剩余时间</t>
-  </si>
-  <si>
-    <t>remaining_time</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>epic_id</t>
-  </si>
-  <si>
-    <t>sprint</t>
-  </si>
-  <si>
-    <t>冲刺</t>
-  </si>
-  <si>
-    <t>sprint_id</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>label_id</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>component_id</t>
-  </si>
-  <si>
-    <t>fix_version</t>
-  </si>
-  <si>
-    <t>修复的版本</t>
-  </si>
-  <si>
-    <t>version_id</t>
-  </si>
-  <si>
-    <t>influence_version</t>
-  </si>
-  <si>
-    <t>影响的版本</t>
-  </si>
-  <si>
     <t>类型</t>
   </si>
   <si>
@@ -616,227 +607,176 @@
   </si>
   <si>
     <t>agile_work_calendar_holiday_ref</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#holiday</t>
   </si>
   <si>
     <t>year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#holiday</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-12-30</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
   </si>
   <si>
     <t>元旦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-1-1</t>
+  </si>
+  <si>
+    <t>2018-2-11</t>
   </si>
   <si>
     <t>除夕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2-15</t>
   </si>
   <si>
     <t>春节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2-16</t>
+  </si>
+  <si>
+    <t>2018-2-17</t>
+  </si>
+  <si>
+    <t>2018-2-18</t>
+  </si>
+  <si>
+    <t>2018-2-19</t>
+  </si>
+  <si>
+    <t>2018-2-20</t>
+  </si>
+  <si>
+    <t>2018-2-21</t>
+  </si>
+  <si>
+    <t>2018-2-24</t>
   </si>
   <si>
     <t>清明节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-4-5</t>
+  </si>
+  <si>
+    <t>2018-4-6</t>
+  </si>
+  <si>
+    <t>2018-4-7</t>
+  </si>
+  <si>
+    <t>2018-4-8</t>
+  </si>
+  <si>
+    <t>2018-4-28</t>
+  </si>
+  <si>
+    <t>2018-4-29</t>
+  </si>
+  <si>
+    <t>2018-4-30</t>
   </si>
   <si>
     <t>劳动节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-5-1</t>
+  </si>
+  <si>
+    <t>2018-6-16</t>
+  </si>
+  <si>
+    <t>2018-6-17</t>
   </si>
   <si>
     <t>端午节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-6-18</t>
+  </si>
+  <si>
+    <t>2018-9-22</t>
+  </si>
+  <si>
+    <t>2018-9-23</t>
   </si>
   <si>
     <t>中秋节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-9-24</t>
+  </si>
+  <si>
+    <t>2018-9-29</t>
+  </si>
+  <si>
+    <t>2018-9-30</t>
   </si>
   <si>
     <t>国庆节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-12-30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-1-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-2-11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-2-15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-2-16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-2-17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-2-18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-2-19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-2-20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-2-21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-2-24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-4-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-4-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-4-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-4-8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-4-28</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-4-29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-4-30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-5-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-6-16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-6-17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-6-18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-9-22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-9-23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-9-24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-9-29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-9-30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2018-10-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2018-10-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2018-10-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2018-10-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2018-10-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2018-10-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2018-10-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DejaVu Serif"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="3">
@@ -878,108 +818,70 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1181,7 +1083,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1200,7 +1102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1210,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1236,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1386,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1412,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1451,15 +1353,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1476,7 +1372,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1495,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1521,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1547,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1573,7 +1469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1599,7 +1495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1625,7 +1521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1651,7 +1547,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1677,7 +1573,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1703,7 +1599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1729,7 +1625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1742,15 +1638,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1764,7 +1654,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1783,7 +1673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1813,7 +1703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1839,7 +1729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1865,7 +1755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1891,7 +1781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1917,7 +1807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1943,7 +1833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1969,7 +1859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1995,7 +1885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2021,7 +1911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2034,99 +1924,96 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85156" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1">
+    <row r="2" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="17" customHeight="1">
+    <row r="3" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1">
+    <row r="4" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1">
+    <row r="5" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1">
+    <row r="6" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1">
+    <row r="7" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1">
+    <row r="8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
+    <row r="9" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
+    <row r="10" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2134,9 +2021,8 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2145,23 +2031,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV18"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.85156" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85156" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.6719" style="3" customWidth="1"/>
     <col min="8" max="256" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2170,7 +2057,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1">
+    <row r="2" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2179,7 +2066,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1">
+    <row r="3" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2188,7 +2075,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1">
+    <row r="4" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2197,7 +2084,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1">
+    <row r="5" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2206,7 +2093,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1">
+    <row r="6" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2215,192 +2102,191 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1">
+    <row r="7" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1">
+    <row r="8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1">
+    <row r="9" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1">
+    <row r="10" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1">
+    <row r="11" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" t="s" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1">
+    <row r="12" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" t="s" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1">
+    <row r="13" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" t="s" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1">
+    <row r="14" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" t="s" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1">
+    <row r="15" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" t="s" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1">
+    <row r="16" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" t="s" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1">
+    <row r="17" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" t="s" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1">
+    <row r="18" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" t="s" s="5">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2409,23 +2295,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV50"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="9" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="27" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.3516" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29.6719" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.1719" style="6" customWidth="1"/>
     <col min="9" max="256" width="9" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2435,7 +2323,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1">
+    <row r="2" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2445,7 +2333,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1">
+    <row r="3" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2455,7 +2343,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1">
+    <row r="4" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2465,7 +2353,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1">
+    <row r="5" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2475,7 +2363,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1">
+    <row r="6" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2485,804 +2373,803 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1">
+    <row r="7" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1">
+    <row r="8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1">
+    <row r="9" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1">
+    <row r="10" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1">
+    <row r="11" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" t="s" s="5">
         <v>47</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1">
+    <row r="12" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1">
+    <row r="13" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" t="s" s="5">
         <v>51</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+    <row r="14" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1">
+    <row r="15" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" t="s" s="5">
         <v>55</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1">
+    <row r="16" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" t="s" s="5">
         <v>57</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" t="s" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1">
+    <row r="17" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s" s="5">
         <v>58</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1">
+    <row r="18" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" t="s" s="5">
         <v>60</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" t="s" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1">
+    <row r="19" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s" s="5">
         <v>61</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" t="s" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1">
+    <row r="20" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s" s="5">
         <v>62</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" t="s" s="5">
         <v>63</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" t="s" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1">
+    <row r="21" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s" s="5">
         <v>64</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" t="s" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1">
+    <row r="22" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" t="s" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1">
+    <row r="23" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" t="s" s="5">
         <v>69</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" t="s" s="5">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1">
+    <row r="24" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s" s="5">
         <v>70</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" t="s" s="5">
         <v>71</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" t="s" s="5">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1">
+    <row r="25" ht="17" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" t="s" s="5">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1">
+    <row r="26" ht="17" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="5" t="s">
+      <c r="E26" t="s" s="5">
         <v>74</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" t="s" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1">
+    <row r="27" ht="17" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="5" t="s">
+      <c r="E27" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" t="s" s="5">
         <v>77</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" t="s" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1">
+    <row r="28" ht="17" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="5" t="s">
+      <c r="E28" t="s" s="5">
         <v>78</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" t="s" s="5">
         <v>79</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" t="s" s="5">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1">
+    <row r="29" ht="17" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" t="s" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1">
+    <row r="30" ht="17" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="5" t="s">
+      <c r="E30" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" t="s" s="5">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1">
+    <row r="31" ht="17" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s" s="5">
         <v>83</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" t="s" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1">
+    <row r="32" ht="17" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="5" t="s">
+      <c r="E32" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" t="s" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1">
+    <row r="33" ht="17" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="5" t="s">
+      <c r="E33" t="s" s="5">
         <v>87</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" t="s" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1">
+    <row r="34" ht="17" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="5" t="s">
+      <c r="E34" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" t="s" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1">
+    <row r="35" ht="17" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="5" t="s">
+      <c r="E35" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" t="s" s="5">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1">
+    <row r="36" ht="17" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="5" t="s">
+      <c r="E36" t="s" s="5">
         <v>93</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" t="s" s="5">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1">
+    <row r="37" ht="17" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" t="s" s="5">
         <v>97</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" t="s" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1">
+    <row r="38" ht="17" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="5" t="s">
+      <c r="E38" t="s" s="5">
         <v>99</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" t="s" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1">
+    <row r="39" ht="17" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5" t="s">
+      <c r="E39" t="s" s="5">
         <v>102</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" t="s" s="5">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1">
+    <row r="40" ht="17" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="5" t="s">
+      <c r="E40" t="s" s="5">
         <v>105</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" t="s" s="5">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1">
+    <row r="41" ht="17" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s" s="5">
         <v>108</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" t="s" s="5">
         <v>109</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" t="s" s="5">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1">
+    <row r="42" ht="17" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5" t="s">
+      <c r="E42" t="s" s="5">
         <v>111</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" t="s" s="5">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1">
+    <row r="43" ht="17" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5" t="s">
+      <c r="E43" t="s" s="5">
         <v>114</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" t="s" s="5">
         <v>115</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" t="s" s="5">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" customHeight="1">
+    <row r="44" ht="17" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5" t="s">
+      <c r="E44" t="s" s="5">
         <v>117</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" t="s" s="5">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" customHeight="1">
+    <row r="45" ht="17" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5" t="s">
+      <c r="E45" t="s" s="5">
         <v>119</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" t="s" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" customHeight="1">
+    <row r="46" ht="17" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5" t="s">
+      <c r="E46" t="s" s="5">
         <v>121</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" t="s" s="5">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1">
+    <row r="47" ht="17" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5" t="s">
+      <c r="E47" t="s" s="5">
         <v>123</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" t="s" s="5">
         <v>124</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" t="s" s="5">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" customHeight="1">
+    <row r="48" ht="17" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5" t="s">
+      <c r="E48" t="s" s="5">
         <v>126</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" t="s" s="5">
         <v>127</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" t="s" s="5">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" customHeight="1">
+    <row r="49" ht="17" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5" t="s">
+      <c r="E49" t="s" s="5">
         <v>129</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" t="s" s="5">
         <v>130</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" t="s" s="5">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" customHeight="1">
+    <row r="50" ht="17" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5" t="s">
+      <c r="E50" t="s" s="5">
         <v>132</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" t="s" s="5">
         <v>133</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" t="s" s="5">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3290,23 +3177,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:IV24"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="9" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.1719" style="7" customWidth="1"/>
     <col min="5" max="5" width="25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.8516" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.3516" style="7" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="7" customWidth="1"/>
     <col min="9" max="256" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3316,7 +3205,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1">
+    <row r="2" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3326,7 +3215,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1">
+    <row r="3" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3336,7 +3225,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1">
+    <row r="4" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3346,7 +3235,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1">
+    <row r="5" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3356,7 +3245,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1">
+    <row r="6" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3366,336 +3255,335 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1">
+    <row r="7" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s" s="5">
         <v>135</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s" s="5">
         <v>136</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s" s="5">
         <v>137</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s" s="5">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1">
+    <row r="8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s" s="5">
         <v>139</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s" s="5">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1">
+    <row r="9" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s" s="5">
         <v>141</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1">
+    </row>
+    <row r="10" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s" s="5">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G10" t="s" s="5">
         <v>143</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" t="s" s="5">
         <v>144</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1">
+    </row>
+    <row r="11" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G11" t="s" s="5">
         <v>146</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" t="s" s="5">
         <v>147</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1">
+    </row>
+    <row r="12" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s" s="5">
+        <v>148</v>
+      </c>
+      <c r="F12" t="s" s="5">
         <v>149</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" t="s" s="5">
         <v>150</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1">
+      <c r="H12" t="s" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s" s="5">
         <v>152</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+      <c r="H13" t="s" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s" s="5">
+        <v>153</v>
+      </c>
+      <c r="F14" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s" s="5">
         <v>154</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" t="s" s="5">
         <v>155</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1">
+    </row>
+    <row r="15" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s" s="5">
+        <v>156</v>
+      </c>
+      <c r="F15" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s" s="5">
         <v>157</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" t="s" s="5">
         <v>158</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1">
+    </row>
+    <row r="16" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" t="s" s="5">
         <v>139</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1">
+      <c r="H16" t="s" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s" s="5">
+        <v>160</v>
+      </c>
+      <c r="F17" t="s" s="5">
         <v>161</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" t="s" s="5">
         <v>162</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" t="s" s="5">
         <v>163</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1">
+    </row>
+    <row r="18" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s" s="5">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s" s="5">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s" s="5">
         <v>165</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1">
+    </row>
+    <row r="19" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s" s="5">
+        <v>166</v>
+      </c>
+      <c r="F19" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G19" t="s" s="5">
         <v>167</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" t="s" s="5">
         <v>168</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1">
+    </row>
+    <row r="20" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s" s="5">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G20" t="s" s="5">
         <v>170</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" t="s" s="5">
         <v>171</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1">
+    </row>
+    <row r="21" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s" s="5">
+        <v>172</v>
+      </c>
+      <c r="F21" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G21" t="s" s="5">
         <v>173</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" t="s" s="5">
         <v>174</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1">
+    </row>
+    <row r="22" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s" s="5">
+        <v>175</v>
+      </c>
+      <c r="F22" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s" s="5">
         <v>176</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" t="s" s="5">
         <v>177</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1">
+    </row>
+    <row r="23" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s" s="5">
+        <v>178</v>
+      </c>
+      <c r="F23" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s" s="5">
         <v>179</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1">
+      <c r="H23" t="s" s="5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" t="s" s="5">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s" s="5">
         <v>181</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" t="s" s="5">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3703,21 +3591,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:IV19"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.85156" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.85156" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="8" customWidth="1"/>
     <col min="4" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="6" width="30.5" style="8" customWidth="1"/>
-    <col min="7" max="8" width="17.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.6719" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.6719" style="8" customWidth="1"/>
     <col min="9" max="256" width="9" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3727,7 +3619,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1">
+    <row r="2" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3737,7 +3629,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1">
+    <row r="3" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3747,7 +3639,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1">
+    <row r="4" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3757,7 +3649,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1">
+    <row r="5" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3767,7 +3659,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1">
+    <row r="6" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3777,236 +3669,236 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1">
+    <row r="7" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s" s="4">
         <v>182</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s" s="5">
         <v>183</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s" s="5">
         <v>184</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s" s="5">
         <v>185</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s" s="5">
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1">
+    <row r="8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s" s="5">
         <v>187</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s" s="5">
         <v>188</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s" s="5">
         <v>189</v>
       </c>
       <c r="H8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1">
+    <row r="9" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s" s="5">
         <v>187</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s" s="5">
         <v>146</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1">
+    <row r="10" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s" s="5">
         <v>187</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s" s="5">
         <v>190</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s" s="5">
         <v>191</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1">
+    <row r="11" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s" s="5">
         <v>187</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" t="s" s="5">
         <v>192</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" t="s" s="5">
         <v>193</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1">
+    <row r="12" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s" s="5">
         <v>194</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" t="s" s="5">
         <v>188</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" t="s" s="5">
         <v>189</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1">
+    <row r="13" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s" s="5">
         <v>194</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s" s="5">
         <v>146</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+    <row r="14" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s" s="5">
         <v>194</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" t="s" s="5">
         <v>190</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" t="s" s="5">
         <v>191</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1">
+    <row r="15" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s" s="5">
         <v>194</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" t="s" s="5">
         <v>192</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" t="s" s="5">
         <v>193</v>
       </c>
       <c r="H15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1">
+    <row r="16" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s" s="5">
         <v>195</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" t="s" s="5">
         <v>188</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" t="s" s="5">
         <v>189</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1">
+    <row r="17" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s" s="5">
         <v>195</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s" s="5">
         <v>146</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="H17" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1">
+    <row r="18" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s" s="5">
         <v>195</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" t="s" s="5">
         <v>190</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" t="s" s="5">
         <v>191</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1">
+    <row r="19" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s" s="5">
         <v>195</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" t="s" s="5">
         <v>192</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" t="s" s="5">
         <v>193</v>
       </c>
       <c r="H19" s="9">
@@ -4014,9 +3906,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -4025,448 +3916,685 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4728A4-4A3E-6B42-A1A4-CDCA446D67FE}">
-  <dimension ref="D7:H42"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.8516" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.8516" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.8516" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.8516" style="10" customWidth="1"/>
+    <col min="6" max="6" width="29" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.8516" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.8516" style="10" customWidth="1"/>
+    <col min="9" max="256" width="10.8516" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
-      <c r="D7" s="10" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="5">
         <v>196</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s" s="5">
         <v>197</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" t="s" s="5">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s" s="5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="5">
+        <v>199</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="5">
         <v>200</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
-      <c r="F8" s="11" t="s">
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="5">
+        <v>201</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>202</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="5">
+        <v>203</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="5">
+        <v>204</v>
+      </c>
+      <c r="F12" t="s" s="5">
+        <v>205</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="5">
+        <v>206</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>207</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="5">
+        <v>208</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="5">
         <v>209</v>
       </c>
-      <c r="G8">
+      <c r="G15" s="9">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="F9" s="11" t="s">
+      <c r="H15" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="5">
         <v>210</v>
       </c>
-      <c r="G9">
+      <c r="G16" s="9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="E10" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="H16" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="5">
         <v>211</v>
       </c>
-      <c r="G10">
+      <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H17" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
-      <c r="F11" s="11" t="s">
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="5">
         <v>212</v>
       </c>
-      <c r="G11">
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="5">
+        <v>213</v>
+      </c>
+      <c r="G19" s="9">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H19" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
-      <c r="E12" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G12">
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="F20" t="s" s="5">
+        <v>215</v>
+      </c>
+      <c r="G20" s="9">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H20" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
-      <c r="E13" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13">
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="5">
+        <v>216</v>
+      </c>
+      <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H21" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
-      <c r="F14" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14">
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="5">
+        <v>217</v>
+      </c>
+      <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H22" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
-      <c r="F15" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G15">
+    <row r="23" ht="17" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="5">
+        <v>218</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s" s="5">
+        <v>219</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" ht="17" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="5">
+        <v>220</v>
+      </c>
+      <c r="G25" s="9">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H25" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
-      <c r="F16" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16">
+    <row r="26" ht="17" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="5">
+        <v>221</v>
+      </c>
+      <c r="G26" s="9">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="H26" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="5:8">
-      <c r="F17" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17">
+    <row r="27" ht="17" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="5">
+        <v>222</v>
+      </c>
+      <c r="F27" t="s" s="5">
+        <v>223</v>
+      </c>
+      <c r="G27" s="9">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="H27" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="5:8">
-      <c r="F18" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G18">
+    <row r="28" ht="17" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="5">
+        <v>224</v>
+      </c>
+      <c r="G28" s="9">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="H28" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="5:8">
-      <c r="F19" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19">
+    <row r="29" ht="17" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="5">
+        <v>225</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" ht="17" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="5">
+        <v>226</v>
+      </c>
+      <c r="F30" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" ht="17" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="5">
+        <v>228</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" ht="17" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="5">
+        <v>229</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" ht="17" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="5">
+        <v>230</v>
+      </c>
+      <c r="F33" t="s" s="5">
+        <v>231</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" ht="17" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="5">
+        <v>232</v>
+      </c>
+      <c r="G34" s="9">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="H34" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
-      <c r="E20" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20">
+    <row r="35" ht="17" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="5">
+        <v>233</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" ht="17" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="5">
+        <v>234</v>
+      </c>
+      <c r="F36" t="s" s="5">
+        <v>235</v>
+      </c>
+      <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H36" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="5:8">
-      <c r="F21" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G21">
+    <row r="37" ht="17" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="5">
+        <v>236</v>
+      </c>
+      <c r="G37" s="9">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="H37" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="5:8">
-      <c r="F22" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22">
+    <row r="38" ht="17" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="5">
+        <v>237</v>
+      </c>
+      <c r="G38" s="9">
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="H38" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="5:8">
-      <c r="F23" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
+    <row r="39" ht="17" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="5:8">
-      <c r="F24" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
+    <row r="40" ht="17" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="5">
+        <v>239</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="5:8">
-      <c r="F25" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G25">
+    <row r="41" ht="17" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="5">
+        <v>240</v>
+      </c>
+      <c r="G41" s="9">
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="H41" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="5:8">
-      <c r="F26" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26">
+    <row r="42" ht="17" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="5">
+        <v>241</v>
+      </c>
+      <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H26">
+      <c r="H42" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="5:8">
-      <c r="E27" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8">
-      <c r="F28" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8">
-      <c r="F29" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8">
-      <c r="E30" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8">
-      <c r="F31" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8">
-      <c r="F32" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8">
-      <c r="E33" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8">
-      <c r="F34" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8">
-      <c r="F35" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8">
-      <c r="E36" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8">
-      <c r="F37" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8">
-      <c r="F38" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8">
-      <c r="F39" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8">
-      <c r="F40" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8">
-      <c r="F41" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8">
-      <c r="F42" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>2018</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinghuang/Documents/workSpace/agileWork/agile-service/src/main/resources/script/db/data_init/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F960BBEA-120E-9944-B9E3-45767E8014D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" r:id="rId4"/>
-    <sheet name="agile_lookup_type" sheetId="2" r:id="rId5"/>
-    <sheet name="agile_lookup_value" sheetId="3" r:id="rId6"/>
-    <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId7"/>
-    <sheet name="agile_message" sheetId="5" r:id="rId8"/>
-    <sheet name="agile_work_calendar_holiday_ref" sheetId="6" r:id="rId9"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
+    <sheet name="agile_lookup_type" sheetId="2" r:id="rId2"/>
+    <sheet name="agile_lookup_value" sheetId="3" r:id="rId3"/>
+    <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId4"/>
+    <sheet name="agile_message" sheetId="5" r:id="rId5"/>
+    <sheet name="agile_work_calendar_holiday_ref" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="283">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -742,41 +751,203 @@
   </si>
   <si>
     <t>2018-10-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>除夕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2-9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-4-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清明节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-4-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-4-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-4-27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-4-28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-4-29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-4-30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-5-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-6-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-6-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-6-9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-9-13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-9-14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-9-15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-9-29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-9-30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DejaVu Serif"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -818,70 +989,109 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1083,7 +1293,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1102,7 +1312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1132,7 +1342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1184,7 +1394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,7 +1420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1236,7 +1446,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1262,7 +1472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,7 +1498,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1314,7 +1524,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1340,7 +1550,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,9 +1563,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1372,7 +1588,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1391,7 +1607,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1659,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +1685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1495,7 +1711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1521,7 +1737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1547,7 +1763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1573,7 +1789,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1599,7 +1815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1625,7 +1841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1638,9 +1854,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1654,7 +1876,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1673,7 +1895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1703,7 +1925,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1729,7 +1951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1755,7 +1977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1781,7 +2003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1807,7 +2029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1833,7 +2055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1859,7 +2081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1885,7 +2107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1911,7 +2133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1924,96 +2146,99 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:5" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:5" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2021,8 +2246,9 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2031,24 +2257,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85156" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.85156" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="3" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.6719" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
     <col min="8" max="256" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:7" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2057,7 +2280,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:7" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2066,7 +2289,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:7" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2075,7 +2298,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2084,7 +2307,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:7" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2093,7 +2316,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2102,191 +2325,192 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s" s="5">
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:7" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s" s="5">
+      <c r="G15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s" s="5">
+      <c r="G16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1">
+    <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s" s="5">
+      <c r="G17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1">
+    <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" s="5" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2295,25 +2519,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6" customWidth="1"/>
+    <col min="1" max="3" width="9" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="27" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.3516" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29.6719" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.1719" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="6" customWidth="1"/>
     <col min="9" max="256" width="9" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2323,7 +2545,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2333,7 +2555,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2343,7 +2565,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2353,7 +2575,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2363,7 +2585,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2373,803 +2595,804 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s" s="5">
+      <c r="H7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H8" t="s" s="5">
+      <c r="H8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H9" t="s" s="5">
+      <c r="H9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H10" t="s" s="5">
+      <c r="H10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s" s="5">
+      <c r="H11" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H12" t="s" s="5">
+      <c r="H12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H13" t="s" s="5">
+      <c r="H13" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H14" t="s" s="5">
+      <c r="H14" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s" s="5">
+      <c r="G15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H15" t="s" s="5">
+      <c r="H15" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s" s="5">
+      <c r="G16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s" s="5">
+      <c r="H16" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1">
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s" s="5">
+      <c r="G17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H17" t="s" s="5">
+      <c r="H17" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1">
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H18" t="s" s="5">
+      <c r="H18" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1">
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" t="s" s="5">
+      <c r="E19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s" s="5">
+      <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" t="s" s="5">
+      <c r="G19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H19" t="s" s="5">
+      <c r="H19" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1">
+    <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" t="s" s="5">
+      <c r="E20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s" s="5">
+      <c r="F20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s" s="5">
+      <c r="G20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H20" t="s" s="5">
+      <c r="H20" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1">
+    <row r="21" spans="1:8" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" t="s" s="5">
+      <c r="E21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F21" t="s" s="5">
+      <c r="F21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G21" t="s" s="5">
+      <c r="G21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H21" t="s" s="5">
+      <c r="H21" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1">
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" t="s" s="5">
+      <c r="E22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F22" t="s" s="5">
+      <c r="F22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="s" s="5">
+      <c r="G22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H22" t="s" s="5">
+      <c r="H22" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1">
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" t="s" s="5">
+      <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F23" t="s" s="5">
+      <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="s" s="5">
+      <c r="G23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H23" t="s" s="5">
+      <c r="H23" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1">
+    <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" t="s" s="5">
+      <c r="E24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F24" t="s" s="5">
+      <c r="F24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G24" t="s" s="5">
+      <c r="G24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H24" t="s" s="5">
+      <c r="H24" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1">
+    <row r="25" spans="1:8" ht="17" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" t="s" s="5">
+      <c r="E25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F25" t="s" s="5">
+      <c r="F25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G25" t="s" s="5">
+      <c r="G25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H25" t="s" s="5">
+      <c r="H25" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1">
+    <row r="26" spans="1:8" ht="17" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" t="s" s="5">
+      <c r="E26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F26" t="s" s="5">
+      <c r="F26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G26" t="s" s="5">
+      <c r="G26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H26" t="s" s="5">
+      <c r="H26" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1">
+    <row r="27" spans="1:8" ht="17" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" t="s" s="5">
+      <c r="E27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F27" t="s" s="5">
+      <c r="F27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G27" t="s" s="5">
+      <c r="G27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H27" t="s" s="5">
+      <c r="H27" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1">
+    <row r="28" spans="1:8" ht="17" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" t="s" s="5">
+      <c r="E28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F28" t="s" s="5">
+      <c r="F28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G28" t="s" s="5">
+      <c r="G28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H28" t="s" s="5">
+      <c r="H28" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1">
+    <row r="29" spans="1:8" ht="17" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" t="s" s="5">
+      <c r="E29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F29" t="s" s="5">
+      <c r="F29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G29" t="s" s="5">
+      <c r="G29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H29" t="s" s="5">
+      <c r="H29" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1">
+    <row r="30" spans="1:8" ht="17" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" t="s" s="5">
+      <c r="E30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F30" t="s" s="5">
+      <c r="F30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G30" t="s" s="5">
+      <c r="G30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H30" t="s" s="5">
+      <c r="H30" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1">
+    <row r="31" spans="1:8" ht="17" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" t="s" s="5">
+      <c r="E31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F31" t="s" s="5">
+      <c r="F31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G31" t="s" s="5">
+      <c r="G31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H31" t="s" s="5">
+      <c r="H31" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1">
+    <row r="32" spans="1:8" ht="17" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" t="s" s="5">
+      <c r="E32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F32" t="s" s="5">
+      <c r="F32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G32" t="s" s="5">
+      <c r="G32" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H32" t="s" s="5">
+      <c r="H32" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1">
+    <row r="33" spans="1:8" ht="17" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" t="s" s="5">
+      <c r="E33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F33" t="s" s="5">
+      <c r="F33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G33" t="s" s="5">
+      <c r="G33" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H33" t="s" s="5">
+      <c r="H33" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1">
+    <row r="34" spans="1:8" ht="17" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" t="s" s="5">
+      <c r="E34" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F34" t="s" s="5">
+      <c r="F34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G34" t="s" s="5">
+      <c r="G34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H34" t="s" s="5">
+      <c r="H34" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1">
+    <row r="35" spans="1:8" ht="17" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" t="s" s="5">
+      <c r="E35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F35" t="s" s="5">
+      <c r="F35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G35" t="s" s="5">
+      <c r="G35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H35" t="s" s="5">
+      <c r="H35" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1">
+    <row r="36" spans="1:8" ht="17" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" t="s" s="5">
+      <c r="E36" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F36" t="s" s="5">
+      <c r="F36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G36" t="s" s="5">
+      <c r="G36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H36" t="s" s="5">
+      <c r="H36" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1">
+    <row r="37" spans="1:8" ht="17" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" t="s" s="5">
+      <c r="E37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F37" t="s" s="5">
+      <c r="F37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G37" t="s" s="5">
+      <c r="G37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H37" t="s" s="5">
+      <c r="H37" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1">
+    <row r="38" spans="1:8" ht="17" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" t="s" s="5">
+      <c r="E38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F38" t="s" s="5">
+      <c r="F38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G38" t="s" s="5">
+      <c r="G38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H38" t="s" s="5">
+      <c r="H38" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1">
+    <row r="39" spans="1:8" ht="17" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" t="s" s="5">
+      <c r="E39" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F39" t="s" s="5">
+      <c r="F39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G39" t="s" s="5">
+      <c r="G39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H39" t="s" s="5">
+      <c r="H39" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1">
+    <row r="40" spans="1:8" ht="17" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" t="s" s="5">
+      <c r="E40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F40" t="s" s="5">
+      <c r="F40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G40" t="s" s="5">
+      <c r="G40" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H40" t="s" s="5">
+      <c r="H40" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1">
+    <row r="41" spans="1:8" ht="17" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" t="s" s="5">
+      <c r="E41" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F41" t="s" s="5">
+      <c r="F41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G41" t="s" s="5">
+      <c r="G41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H41" t="s" s="5">
+      <c r="H41" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1">
+    <row r="42" spans="1:8" ht="17" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" t="s" s="5">
+      <c r="E42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F42" t="s" s="5">
+      <c r="F42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G42" t="s" s="5">
+      <c r="G42" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H42" t="s" s="5">
+      <c r="H42" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1">
+    <row r="43" spans="1:8" ht="17" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" t="s" s="5">
+      <c r="E43" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F43" t="s" s="5">
+      <c r="F43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G43" t="s" s="5">
+      <c r="G43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H43" t="s" s="5">
+      <c r="H43" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" ht="17" customHeight="1">
+    <row r="44" spans="1:8" ht="17" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" t="s" s="5">
+      <c r="E44" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F44" t="s" s="5">
+      <c r="F44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G44" t="s" s="5">
+      <c r="G44" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H44" t="s" s="5">
+      <c r="H44" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" ht="17" customHeight="1">
+    <row r="45" spans="1:8" ht="17" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" t="s" s="5">
+      <c r="E45" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F45" t="s" s="5">
+      <c r="F45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G45" t="s" s="5">
+      <c r="G45" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H45" t="s" s="5">
+      <c r="H45" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" ht="17" customHeight="1">
+    <row r="46" spans="1:8" ht="17" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" t="s" s="5">
+      <c r="E46" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F46" t="s" s="5">
+      <c r="F46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G46" t="s" s="5">
+      <c r="G46" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H46" t="s" s="5">
+      <c r="H46" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" ht="17" customHeight="1">
+    <row r="47" spans="1:8" ht="17" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" t="s" s="5">
+      <c r="E47" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F47" t="s" s="5">
+      <c r="F47" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G47" t="s" s="5">
+      <c r="G47" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H47" t="s" s="5">
+      <c r="H47" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" ht="17" customHeight="1">
+    <row r="48" spans="1:8" ht="17" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" t="s" s="5">
+      <c r="E48" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F48" t="s" s="5">
+      <c r="F48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G48" t="s" s="5">
+      <c r="G48" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H48" t="s" s="5">
+      <c r="H48" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" ht="17" customHeight="1">
+    <row r="49" spans="1:8" ht="17" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" t="s" s="5">
+      <c r="E49" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F49" t="s" s="5">
+      <c r="F49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G49" t="s" s="5">
+      <c r="G49" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H49" t="s" s="5">
+      <c r="H49" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" ht="17" customHeight="1">
+    <row r="50" spans="1:8" ht="17" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" t="s" s="5">
+      <c r="E50" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F50" t="s" s="5">
+      <c r="F50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G50" t="s" s="5">
+      <c r="G50" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H50" t="s" s="5">
+      <c r="H50" s="5" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3177,25 +3400,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.1719" style="7" customWidth="1"/>
+    <col min="1" max="3" width="9" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.8516" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.3516" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="7" customWidth="1"/>
     <col min="9" max="256" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3205,7 +3426,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3215,7 +3436,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3225,7 +3446,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3235,7 +3456,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3245,7 +3466,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3255,335 +3476,336 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s" s="5">
+      <c r="H7" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H8" t="s" s="5">
+      <c r="H8" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s" s="5">
+      <c r="H9" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H10" t="s" s="5">
+      <c r="H10" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H11" t="s" s="5">
+      <c r="H11" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H12" t="s" s="5">
+      <c r="H12" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H13" t="s" s="5">
+      <c r="H13" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H14" t="s" s="5">
+      <c r="H14" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G15" t="s" s="5">
+      <c r="G15" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H15" t="s" s="5">
+      <c r="H15" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G16" t="s" s="5">
+      <c r="G16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H16" t="s" s="5">
+      <c r="H16" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1">
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G17" t="s" s="5">
+      <c r="G17" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H17" t="s" s="5">
+      <c r="H17" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1">
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H18" t="s" s="5">
+      <c r="H18" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1">
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" t="s" s="5">
+      <c r="E19" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F19" t="s" s="5">
+      <c r="F19" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G19" t="s" s="5">
+      <c r="G19" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H19" t="s" s="5">
+      <c r="H19" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1">
+    <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" t="s" s="5">
+      <c r="E20" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F20" t="s" s="5">
+      <c r="F20" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G20" t="s" s="5">
+      <c r="G20" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H20" t="s" s="5">
+      <c r="H20" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1">
+    <row r="21" spans="1:8" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" t="s" s="5">
+      <c r="E21" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F21" t="s" s="5">
+      <c r="F21" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G21" t="s" s="5">
+      <c r="G21" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H21" t="s" s="5">
+      <c r="H21" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1">
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" t="s" s="5">
+      <c r="E22" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F22" t="s" s="5">
+      <c r="F22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G22" t="s" s="5">
+      <c r="G22" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H22" t="s" s="5">
+      <c r="H22" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1">
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" t="s" s="5">
+      <c r="E23" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F23" t="s" s="5">
+      <c r="F23" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G23" t="s" s="5">
+      <c r="G23" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H23" t="s" s="5">
+      <c r="H23" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1">
+    <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" t="s" s="5">
+      <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F24" t="s" s="5">
+      <c r="F24" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G24" t="s" s="5">
+      <c r="G24" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H24" t="s" s="5">
+      <c r="H24" s="5" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3591,25 +3813,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85156" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.85156" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="8" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.6719" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.6719" style="8" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="8" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" style="8" customWidth="1"/>
     <col min="9" max="256" width="9" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3619,7 +3837,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3629,7 +3847,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3639,7 +3857,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3649,7 +3867,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3659,7 +3877,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3669,236 +3887,236 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="4">
+      <c r="D7" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H7" t="s" s="5">
+      <c r="H7" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
         <v>189</v>
       </c>
       <c r="H8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" s="5" t="s">
         <v>146</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" s="5" t="s">
         <v>191</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" s="5" t="s">
         <v>193</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" s="5" t="s">
         <v>189</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" s="5" t="s">
         <v>146</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" s="5" t="s">
         <v>191</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G15" t="s" s="5">
+      <c r="G15" s="5" t="s">
         <v>193</v>
       </c>
       <c r="H15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G16" t="s" s="5">
+      <c r="G16" s="5" t="s">
         <v>189</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1">
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G17" t="s" s="5">
+      <c r="G17" s="5" t="s">
         <v>146</v>
       </c>
       <c r="H17" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1">
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" s="5" t="s">
         <v>191</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1">
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" t="s" s="5">
+      <c r="E19" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F19" t="s" s="5">
+      <c r="F19" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G19" t="s" s="5">
+      <c r="G19" s="5" t="s">
         <v>193</v>
       </c>
       <c r="H19" s="9">
@@ -3906,8 +4124,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -3916,25 +4135,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:IV76"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.8516" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.8516" style="10" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="29" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="10" customWidth="1"/>
-    <col min="9" max="256" width="10.8516" style="10" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3944,7 +4161,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3954,7 +4171,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3964,7 +4181,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3974,7 +4191,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3984,7 +4201,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3994,33 +4211,33 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H7" t="s" s="5">
+      <c r="H7" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G8" s="9">
@@ -4030,13 +4247,13 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="s">
         <v>200</v>
       </c>
       <c r="G9" s="9">
@@ -4046,15 +4263,15 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>202</v>
       </c>
       <c r="G10" s="9">
@@ -4064,13 +4281,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="s">
         <v>203</v>
       </c>
       <c r="G11" s="9">
@@ -4080,15 +4297,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>205</v>
       </c>
       <c r="G12" s="9">
@@ -4098,15 +4315,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="s">
         <v>207</v>
       </c>
       <c r="G13" s="9">
@@ -4116,13 +4333,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="s">
         <v>208</v>
       </c>
       <c r="G14" s="9">
@@ -4132,13 +4349,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="5" t="s">
         <v>209</v>
       </c>
       <c r="G15" s="9">
@@ -4148,13 +4365,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="s">
         <v>210</v>
       </c>
       <c r="G16" s="9">
@@ -4164,13 +4381,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1">
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="5" t="s">
         <v>211</v>
       </c>
       <c r="G17" s="9">
@@ -4180,13 +4397,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1">
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="s">
         <v>212</v>
       </c>
       <c r="G18" s="9">
@@ -4196,13 +4413,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1">
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" t="s" s="5">
+      <c r="F19" s="5" t="s">
         <v>213</v>
       </c>
       <c r="G19" s="9">
@@ -4212,15 +4429,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1">
+    <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" t="s" s="5">
+      <c r="E20" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F20" t="s" s="5">
+      <c r="F20" s="5" t="s">
         <v>215</v>
       </c>
       <c r="G20" s="9">
@@ -4230,13 +4447,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1">
+    <row r="21" spans="1:8" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" t="s" s="5">
+      <c r="F21" s="5" t="s">
         <v>216</v>
       </c>
       <c r="G21" s="9">
@@ -4246,13 +4463,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1">
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" t="s" s="5">
+      <c r="F22" s="5" t="s">
         <v>217</v>
       </c>
       <c r="G22" s="9">
@@ -4262,13 +4479,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1">
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" t="s" s="5">
+      <c r="F23" s="5" t="s">
         <v>218</v>
       </c>
       <c r="G23" s="9">
@@ -4278,13 +4495,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1">
+    <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" t="s" s="5">
+      <c r="F24" s="5" t="s">
         <v>219</v>
       </c>
       <c r="G24" s="9">
@@ -4294,13 +4511,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1">
+    <row r="25" spans="1:8" ht="17" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" t="s" s="5">
+      <c r="F25" s="5" t="s">
         <v>220</v>
       </c>
       <c r="G25" s="9">
@@ -4310,13 +4527,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1">
+    <row r="26" spans="1:8" ht="17" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" t="s" s="5">
+      <c r="F26" s="5" t="s">
         <v>221</v>
       </c>
       <c r="G26" s="9">
@@ -4326,15 +4543,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1">
+    <row r="27" spans="1:8" ht="17" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" t="s" s="5">
+      <c r="E27" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F27" t="s" s="5">
+      <c r="F27" s="5" t="s">
         <v>223</v>
       </c>
       <c r="G27" s="9">
@@ -4344,13 +4561,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1">
+    <row r="28" spans="1:8" ht="17" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" t="s" s="5">
+      <c r="F28" s="5" t="s">
         <v>224</v>
       </c>
       <c r="G28" s="9">
@@ -4360,13 +4577,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1">
+    <row r="29" spans="1:8" ht="17" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" t="s" s="5">
+      <c r="F29" s="5" t="s">
         <v>225</v>
       </c>
       <c r="G29" s="9">
@@ -4376,15 +4593,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1">
+    <row r="30" spans="1:8" ht="17" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" t="s" s="5">
+      <c r="E30" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F30" t="s" s="5">
+      <c r="F30" s="5" t="s">
         <v>227</v>
       </c>
       <c r="G30" s="9">
@@ -4394,13 +4611,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1">
+    <row r="31" spans="1:8" ht="17" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" t="s" s="5">
+      <c r="F31" s="5" t="s">
         <v>228</v>
       </c>
       <c r="G31" s="9">
@@ -4410,13 +4627,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1">
+    <row r="32" spans="1:8" ht="17" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" t="s" s="5">
+      <c r="F32" s="5" t="s">
         <v>229</v>
       </c>
       <c r="G32" s="9">
@@ -4426,15 +4643,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1">
+    <row r="33" spans="1:8" ht="17" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" t="s" s="5">
+      <c r="E33" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F33" t="s" s="5">
+      <c r="F33" s="5" t="s">
         <v>231</v>
       </c>
       <c r="G33" s="9">
@@ -4444,13 +4661,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1">
+    <row r="34" spans="1:8" ht="17" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" t="s" s="5">
+      <c r="F34" s="5" t="s">
         <v>232</v>
       </c>
       <c r="G34" s="9">
@@ -4460,13 +4677,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1">
+    <row r="35" spans="1:8" ht="17" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" t="s" s="5">
+      <c r="F35" s="5" t="s">
         <v>233</v>
       </c>
       <c r="G35" s="9">
@@ -4476,15 +4693,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1">
+    <row r="36" spans="1:8" ht="17" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" t="s" s="5">
+      <c r="E36" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F36" t="s" s="5">
+      <c r="F36" s="5" t="s">
         <v>235</v>
       </c>
       <c r="G36" s="9">
@@ -4494,13 +4711,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1">
+    <row r="37" spans="1:8" ht="17" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" t="s" s="5">
+      <c r="F37" s="5" t="s">
         <v>236</v>
       </c>
       <c r="G37" s="9">
@@ -4510,13 +4727,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1">
+    <row r="38" spans="1:8" ht="17" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" t="s" s="5">
+      <c r="F38" s="5" t="s">
         <v>237</v>
       </c>
       <c r="G38" s="9">
@@ -4526,13 +4743,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1">
+    <row r="39" spans="1:8" ht="17" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" t="s" s="5">
+      <c r="F39" s="5" t="s">
         <v>238</v>
       </c>
       <c r="G39" s="9">
@@ -4542,13 +4759,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1">
+    <row r="40" spans="1:8" ht="17" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" t="s" s="5">
+      <c r="F40" s="5" t="s">
         <v>239</v>
       </c>
       <c r="G40" s="9">
@@ -4558,13 +4775,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1">
+    <row r="41" spans="1:8" ht="17" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" t="s" s="5">
+      <c r="F41" s="5" t="s">
         <v>240</v>
       </c>
       <c r="G41" s="9">
@@ -4574,13 +4791,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1">
+    <row r="42" spans="1:8" ht="17" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" t="s" s="5">
+      <c r="F42" s="11" t="s">
         <v>241</v>
       </c>
       <c r="G42" s="9">
@@ -4590,9 +4807,570 @@
         <v>2018</v>
       </c>
     </row>
+    <row r="43" spans="1:8" ht="17" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="H45" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" customHeight="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16" customHeight="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16" customHeight="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" customHeight="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16" customHeight="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16" customHeight="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0</v>
+      </c>
+      <c r="H62" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16" customHeight="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16" customHeight="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+      <c r="H67" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16" customHeight="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
+      <c r="H68" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G70" s="9">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16" customHeight="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0</v>
+      </c>
+      <c r="H71" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16" customHeight="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16" customHeight="1">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0</v>
+      </c>
+      <c r="H73" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16" customHeight="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0</v>
+      </c>
+      <c r="H74" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16" customHeight="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16" customHeight="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G76" s="9">
+        <v>1</v>
+      </c>
+      <c r="H76" s="9">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinghuang/Documents/workSpace/agileWork/agile-service/src/main/resources/script/db/data_init/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F960BBEA-120E-9944-B9E3-45767E8014D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4625A2EC-5B5C-E94A-9993-75ADAB2B3026}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="279">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -819,22 +819,6 @@
   </si>
   <si>
     <t>2019-4-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-4-27</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-4-28</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-4-29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-4-30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4136,10 +4120,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:IV76"/>
+  <dimension ref="A1:IV72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A59" sqref="A56:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -5028,12 +5012,14 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="12" t="s">
+        <v>260</v>
+      </c>
       <c r="F56" s="11" t="s">
         <v>259</v>
       </c>
       <c r="G56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="9">
         <v>2019</v>
@@ -5044,12 +5030,14 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="12" t="s">
+        <v>262</v>
+      </c>
       <c r="F57" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G57" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="9">
         <v>2019</v>
@@ -5062,7 +5050,7 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G58" s="9">
         <v>0</v>
@@ -5078,7 +5066,7 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G59" s="9">
         <v>0</v>
@@ -5092,11 +5080,11 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="12" t="s">
-        <v>264</v>
+      <c r="E60" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G60" s="9">
         <v>0</v>
@@ -5110,11 +5098,9 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="G61" s="9">
         <v>0</v>
@@ -5149,7 +5135,7 @@
         <v>268</v>
       </c>
       <c r="G63" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="9">
         <v>2019</v>
@@ -5160,14 +5146,12 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="11" t="s">
         <v>269</v>
       </c>
       <c r="G64" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="9">
         <v>2019</v>
@@ -5178,7 +5162,9 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="12" t="s">
+        <v>271</v>
+      </c>
       <c r="F65" s="11" t="s">
         <v>270</v>
       </c>
@@ -5196,7 +5182,7 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G66" s="9">
         <v>0</v>
@@ -5212,10 +5198,10 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G67" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="9">
         <v>2019</v>
@@ -5228,10 +5214,10 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G68" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="9">
         <v>2019</v>
@@ -5242,11 +5228,9 @@
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="2"/>
+      <c r="F69" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="G69" s="9">
         <v>0</v>
@@ -5297,73 +5281,9 @@
         <v>278</v>
       </c>
       <c r="G72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="9">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="16" customHeight="1">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G73" s="9">
-        <v>0</v>
-      </c>
-      <c r="H73" s="9">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16" customHeight="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="G74" s="9">
-        <v>0</v>
-      </c>
-      <c r="H74" s="9">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="16" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="G75" s="9">
-        <v>0</v>
-      </c>
-      <c r="H75" s="9">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="16" customHeight="1">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G76" s="9">
-        <v>1</v>
-      </c>
-      <c r="H76" s="9">
         <v>2019</v>
       </c>
     </row>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/db/data_init/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4625A2EC-5B5C-E94A-9993-75ADAB2B3026}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="14400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <sheet name="agile_message" sheetId="5" r:id="rId5"/>
     <sheet name="agile_work_calendar_holiday_ref" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -432,6 +426,15 @@
     <t>无状态列颜色</t>
   </si>
   <si>
+    <t>column_color_prepare</t>
+  </si>
+  <si>
+    <t>#F67F5A</t>
+  </si>
+  <si>
+    <t>prepare列颜色</t>
+  </si>
+  <si>
     <t>agile_quick_filter_field</t>
   </si>
   <si>
@@ -751,190 +754,281 @@
   </si>
   <si>
     <t>2018-10-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-1-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-2-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-2-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-2-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>除夕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-2-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>春节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-2-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-2-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-2-8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-2-9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-2-10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-4-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清明节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-4-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-4-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-5-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳动节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-6-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>端午节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-6-8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-6-9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-9-13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-9-14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-9-15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-9-29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-9-30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-10-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-10-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-10-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-10-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-10-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-10-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-10-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-10-12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,11 +1038,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -971,43 +1251,327 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
       <rgbColor rgb="0000FF00"/>
       <rgbColor rgb="000000FF"/>
       <rgbColor rgb="00FFFF00"/>
@@ -1066,9 +1630,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1274,8 +1835,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
@@ -1295,7 +1854,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1308,7 +1866,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1325,7 +1883,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1351,7 +1908,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1377,7 +1933,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1403,7 +1958,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1429,7 +1983,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1455,7 +2008,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1481,7 +2033,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1507,7 +2058,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1533,7 +2083,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1569,8 +2118,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
@@ -1590,7 +2137,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1616,7 +2162,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1642,7 +2187,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1668,7 +2212,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1694,7 +2237,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1720,7 +2262,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1746,7 +2287,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1772,7 +2312,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1798,7 +2337,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1824,7 +2362,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1857,8 +2394,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
@@ -1878,7 +2413,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1891,7 +2425,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1908,7 +2442,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1934,7 +2467,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1960,7 +2492,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1986,7 +2517,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -2012,7 +2542,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -2038,7 +2567,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -2064,7 +2592,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -2090,7 +2617,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -2116,7 +2642,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -2143,86 +2668,88 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9.83333333333333" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1">
+    <row r="2" ht="17" customHeight="1" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="17" customHeight="1">
+    <row r="3" ht="17" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1">
+    <row r="4" ht="17" customHeight="1" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1">
+    <row r="5" ht="17" customHeight="1" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1">
+    <row r="6" ht="17" customHeight="1" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1">
+    <row r="7" ht="17" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1">
+    <row r="8" ht="17" customHeight="1" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
+    <row r="9" ht="17" customHeight="1" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
+    <row r="10" ht="17" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2230,9 +2757,8 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2241,21 +2767,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
-    <col min="8" max="256" width="9" style="3" customWidth="1"/>
+    <col min="1" max="3" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2264,7 +2793,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1">
+    <row r="2" ht="17" customHeight="1" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2273,7 +2802,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1">
+    <row r="3" ht="17" customHeight="1" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2282,7 +2811,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1">
+    <row r="4" ht="17" customHeight="1" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2291,7 +2820,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1">
+    <row r="5" ht="17" customHeight="1" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2300,7 +2829,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1">
+    <row r="6" ht="17" customHeight="1" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2309,192 +2838,191 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1">
+    <row r="7" ht="17" customHeight="1" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1">
+    <row r="8" ht="17" customHeight="1" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1">
+    <row r="9" ht="17" customHeight="1" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1">
+    <row r="10" ht="17" customHeight="1" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1">
+    <row r="11" ht="17" customHeight="1" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1">
+    <row r="12" ht="17" customHeight="1" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1">
+    <row r="13" ht="17" customHeight="1" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1">
+    <row r="14" ht="17" customHeight="1" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1">
+    <row r="15" ht="17" customHeight="1" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1">
+    <row r="16" ht="17" customHeight="1" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1">
+    <row r="17" ht="17" customHeight="1" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1">
+    <row r="18" ht="17" customHeight="1" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2503,23 +3031,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="6" customWidth="1"/>
-    <col min="9" max="256" width="9" style="6" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1666666666667" style="1" customWidth="1"/>
+    <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2529,7 +3060,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2539,7 +3070,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2549,7 +3080,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2559,7 +3090,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2569,7 +3100,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2579,804 +3110,821 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1">
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1">
+    <row r="20" ht="17" customHeight="1" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1">
+    <row r="21" ht="17" customHeight="1" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1">
+    <row r="22" ht="17" customHeight="1" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1">
+    <row r="23" ht="17" customHeight="1" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1">
+    <row r="24" ht="17" customHeight="1" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1">
+    <row r="25" ht="17" customHeight="1" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1">
+    <row r="26" ht="17" customHeight="1" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1">
+    <row r="27" ht="17" customHeight="1" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1">
+    <row r="28" ht="17" customHeight="1" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1">
+    <row r="29" ht="17" customHeight="1" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1">
+    <row r="30" ht="17" customHeight="1" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1">
+    <row r="31" ht="17" customHeight="1" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1">
+    <row r="32" ht="17" customHeight="1" spans="1:8">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1">
+    <row r="33" ht="17" customHeight="1" spans="1:8">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1">
+    <row r="34" ht="17" customHeight="1" spans="1:8">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1">
+    <row r="35" ht="17" customHeight="1" spans="1:8">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1">
+    <row r="36" ht="17" customHeight="1" spans="1:8">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1">
+    <row r="37" ht="17" customHeight="1" spans="1:8">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1">
+    <row r="38" ht="17" customHeight="1" spans="1:8">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1">
+    <row r="39" ht="17" customHeight="1" spans="1:8">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1">
+    <row r="40" ht="17" customHeight="1" spans="1:8">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1">
+    <row r="41" ht="17" customHeight="1" spans="1:8">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1">
+    <row r="42" ht="17" customHeight="1" spans="1:8">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1">
+    <row r="43" ht="17" customHeight="1" spans="1:8">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" customHeight="1">
+    <row r="44" ht="17" customHeight="1" spans="1:8">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" customHeight="1">
+    <row r="45" ht="17" customHeight="1" spans="1:8">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" customHeight="1">
+    <row r="46" ht="17" customHeight="1" spans="1:8">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1">
+    <row r="47" ht="17" customHeight="1" spans="1:8">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" customHeight="1">
+    <row r="48" ht="17" customHeight="1" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" customHeight="1">
+    <row r="49" ht="17" customHeight="1" spans="1:8">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" customHeight="1">
+    <row r="50" ht="17" customHeight="1" spans="1:8">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="3" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="51" ht="17" customHeight="1" spans="1:8">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3384,23 +3932,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:IV24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="7" customWidth="1"/>
-    <col min="9" max="256" width="9" style="7" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
+    <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3410,7 +3961,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3420,7 +3971,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3430,7 +3981,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3440,7 +3991,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3450,7 +4001,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3460,336 +4011,335 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1">
+      <c r="H7" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1">
+      <c r="H8" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1">
+      <c r="H9" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1">
+      <c r="G10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1">
+      <c r="E11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1">
+      <c r="E12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+      <c r="G13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1">
+      <c r="E14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1">
+      <c r="E15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1">
+      <c r="H16" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1">
+      <c r="F17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="E18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1">
+      <c r="H18" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1">
+      <c r="E19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1">
+      <c r="E20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="1" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1">
+      <c r="E21" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1">
+      <c r="E22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" ht="17" customHeight="1" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1">
+      <c r="E23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="1" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="F24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3797,21 +4347,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:IV19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="6" width="30.5" style="8" customWidth="1"/>
-    <col min="7" max="8" width="17.6640625" style="8" customWidth="1"/>
-    <col min="9" max="256" width="9" style="8" customWidth="1"/>
+    <col min="1" max="3" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3821,7 +4374,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3831,7 +4384,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3841,7 +4394,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3851,7 +4404,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3861,7 +4414,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3871,246 +4424,245 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1">
+      <c r="F7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="E8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1">
+      <c r="E9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1">
+      <c r="F10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1">
+      <c r="E11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="E12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="E13" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1">
+      <c r="E15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="E16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="E17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1">
+      <c r="E18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="G19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -4119,23 +4671,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:IV72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A59" sqref="A56:XFD59"/>
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A59" sqref="$A56:$XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="29" style="10" customWidth="1"/>
-    <col min="7" max="256" width="10.83203125" style="10" customWidth="1"/>
+    <col min="1" max="3" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" customWidth="1"/>
+    <col min="7" max="256" width="10.8333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4145,7 +4698,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4155,7 +4708,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4165,7 +4718,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4175,7 +4728,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4185,7 +4738,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4195,1102 +4748,1101 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1">
+      <c r="F7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="F8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="F9" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="E10" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="E12" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="E13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="F14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="F15" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="F16" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="F17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
+      <c r="F18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="4">
         <v>1</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1">
+    <row r="20" ht="17" customHeight="1" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
+      <c r="E20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1">
+    <row r="21" ht="17" customHeight="1" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
+      <c r="F21" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1">
+    <row r="22" ht="17" customHeight="1" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="F22" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1">
+    <row r="23" ht="17" customHeight="1" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="F23" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" s="4">
         <v>1</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1">
+    <row r="24" ht="17" customHeight="1" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="4">
         <v>1</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1">
+    <row r="25" ht="17" customHeight="1" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
+      <c r="F25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1">
+    <row r="26" ht="17" customHeight="1" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="F26" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1">
+    <row r="27" ht="17" customHeight="1" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
+      <c r="E27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1">
+    <row r="28" ht="17" customHeight="1" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
+      <c r="F28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1">
+    <row r="29" ht="17" customHeight="1" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
+      <c r="F29" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1">
+    <row r="30" ht="17" customHeight="1" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
+      <c r="E30" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1">
+    <row r="31" ht="17" customHeight="1" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="F31" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1">
+    <row r="32" ht="17" customHeight="1" spans="1:8">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9">
+      <c r="F32" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1">
+    <row r="33" ht="17" customHeight="1" spans="1:8">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
+      <c r="E33" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1">
+    <row r="34" ht="17" customHeight="1" spans="1:8">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="F34" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="4">
         <v>1</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1">
+    <row r="35" ht="17" customHeight="1" spans="1:8">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="F35" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1">
+    <row r="36" ht="17" customHeight="1" spans="1:8">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
+      <c r="E36" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1">
+    <row r="37" ht="17" customHeight="1" spans="1:8">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
+      <c r="F37" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1">
+    <row r="38" ht="17" customHeight="1" spans="1:8">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
+      <c r="F38" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1">
+    <row r="39" ht="17" customHeight="1" spans="1:8">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
+      <c r="F39" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1">
+    <row r="40" ht="17" customHeight="1" spans="1:8">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
+      <c r="F40" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1">
+    <row r="41" ht="17" customHeight="1" spans="1:8">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
+      <c r="F41" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1">
+    <row r="42" ht="17" customHeight="1" spans="1:8">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
+      <c r="F42" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1">
+    <row r="43" ht="17" customHeight="1" spans="1:8">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
+      <c r="E43" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" customHeight="1">
+    <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G44" s="9">
+      <c r="F44" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G44" s="4">
         <v>1</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" customHeight="1">
+    <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G45" s="9">
+      <c r="F45" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" s="4">
         <v>1</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16" customHeight="1">
+    <row r="46" customHeight="1" spans="1:8">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
+      <c r="E46" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16" customHeight="1">
+    <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16" customHeight="1">
+    <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="9">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9">
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1">
+    <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="9">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9">
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" customHeight="1">
+    <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G50" s="9">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9">
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16" customHeight="1">
+    <row r="51" customHeight="1" spans="1:8">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G51" s="9">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9">
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" customHeight="1">
+    <row r="52" customHeight="1" spans="1:8">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G52" s="9">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9">
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1">
+    <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="F53" s="11" t="s">
+      <c r="E53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G53" s="9">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9">
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" customHeight="1">
+    <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9">
+      <c r="F54" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" customHeight="1">
+    <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9">
+      <c r="F55" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" customHeight="1">
+    <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
+      <c r="E56" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" customHeight="1">
+    <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9">
+      <c r="E57" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1">
+    <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9">
+      <c r="F58" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1">
+    <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9">
+      <c r="F59" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" customHeight="1">
+    <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9">
+        <v>233</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1">
+    <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9">
+      <c r="F61" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" customHeight="1">
+    <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9">
+      <c r="F62" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" customHeight="1">
+    <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G63" s="9">
+      <c r="F63" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G63" s="4">
         <v>1</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" customHeight="1">
+    <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="G64" s="9">
+      <c r="F64" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G64" s="4">
         <v>1</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16" customHeight="1">
+    <row r="65" customHeight="1" spans="1:8">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
+      <c r="E65" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" customHeight="1">
+    <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="G66" s="9">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9">
+      <c r="F66" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16" customHeight="1">
+    <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G67" s="9">
-        <v>0</v>
-      </c>
-      <c r="H67" s="9">
+      <c r="F67" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16" customHeight="1">
+    <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G68" s="9">
-        <v>0</v>
-      </c>
-      <c r="H68" s="9">
+      <c r="F68" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16" customHeight="1">
+    <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G69" s="9">
-        <v>0</v>
-      </c>
-      <c r="H69" s="9">
+      <c r="F69" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16" customHeight="1">
+    <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G70" s="9">
-        <v>0</v>
-      </c>
-      <c r="H70" s="9">
+      <c r="F70" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16" customHeight="1">
+    <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="G71" s="9">
-        <v>0</v>
-      </c>
-      <c r="H71" s="9">
+      <c r="F71" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16" customHeight="1">
+    <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G72" s="9">
+      <c r="F72" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G72" s="4">
         <v>1</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="4">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>准备</t>
   </si>
   <si>
     <t>constraint_none</t>
@@ -851,18 +857,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -878,7 +878,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,10 +906,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,14 +918,6 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,7 +930,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,17 +982,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,16 +996,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,29 +1022,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,13 +1049,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,7 +1097,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,145 +1217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,6 +1255,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1264,8 +1288,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1325,187 +1349,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2842,7 +2840,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -3033,10 +3031,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -3193,7 +3191,7 @@
         <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>47</v>
@@ -3247,7 +3245,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>53</v>
@@ -3301,13 +3299,13 @@
         <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:8">
@@ -3316,16 +3314,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:8">
@@ -3340,10 +3338,10 @@
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:8">
@@ -3352,16 +3350,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1" spans="1:8">
@@ -3463,7 +3461,7 @@
         <v>74</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>75</v>
@@ -3517,13 +3515,13 @@
         <v>80</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" ht="17" customHeight="1" spans="1:8">
@@ -3532,16 +3530,16 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" ht="17" customHeight="1" spans="1:8">
@@ -3607,7 +3605,7 @@
         <v>89</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>90</v>
@@ -3643,13 +3641,13 @@
         <v>93</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" ht="17" customHeight="1" spans="1:8">
@@ -3658,16 +3656,16 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="38" ht="17" customHeight="1" spans="1:8">
@@ -3676,16 +3674,16 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="39" ht="17" customHeight="1" spans="1:8">
@@ -3694,16 +3692,16 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" ht="17" customHeight="1" spans="1:8">
@@ -3712,16 +3710,16 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" ht="17" customHeight="1" spans="1:8">
@@ -3730,16 +3728,16 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" ht="17" customHeight="1" spans="1:8">
@@ -3748,16 +3746,16 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" ht="17" customHeight="1" spans="1:8">
@@ -3766,16 +3764,16 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44" ht="17" customHeight="1" spans="1:8">
@@ -3784,13 +3782,13 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>118</v>
@@ -3808,7 +3806,7 @@
         <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>120</v>
@@ -3826,7 +3824,7 @@
         <v>34</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>122</v>
@@ -3841,13 +3839,13 @@
         <v>123</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="48" ht="17" customHeight="1" spans="1:8">
@@ -3856,16 +3854,16 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="49" ht="17" customHeight="1" spans="1:8">
@@ -3874,16 +3872,16 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="50" ht="17" customHeight="1" spans="1:8">
@@ -3892,16 +3890,16 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="51" ht="17" customHeight="1" spans="1:8">
@@ -3910,16 +3908,34 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H51" s="3" t="s">
+    </row>
+    <row r="52" ht="17" customHeight="1" spans="1:8">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3" t="s">
         <v>137</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4016,19 +4032,19 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:8">
@@ -4037,16 +4053,16 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:8">
@@ -4058,13 +4074,13 @@
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:8">
@@ -4073,16 +4089,16 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1" spans="1:8">
@@ -4091,16 +4107,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:8">
@@ -4109,16 +4125,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" ht="17" customHeight="1" spans="1:8">
@@ -4127,16 +4143,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:8">
@@ -4145,16 +4161,16 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:8">
@@ -4163,16 +4179,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:8">
@@ -4181,16 +4197,16 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1" spans="1:8">
@@ -4199,16 +4215,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:8">
@@ -4217,16 +4233,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:8">
@@ -4235,16 +4251,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:8">
@@ -4253,16 +4269,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1" spans="1:8">
@@ -4271,16 +4287,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" ht="17" customHeight="1" spans="1:8">
@@ -4289,16 +4305,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" ht="17" customHeight="1" spans="1:8">
@@ -4307,16 +4323,16 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="1" spans="1:8">
@@ -4328,10 +4344,10 @@
         <v>16</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>39</v>
@@ -4428,20 +4444,20 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="7" t="s">
-        <v>185</v>
+      <c r="D7" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:8">
@@ -4450,13 +4466,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -4468,13 +4484,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -4486,13 +4502,13 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -4504,13 +4520,13 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -4522,13 +4538,13 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
@@ -4540,13 +4556,13 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
@@ -4558,13 +4574,13 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -4576,13 +4592,13 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -4594,13 +4610,13 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -4612,13 +4628,13 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
@@ -4630,13 +4646,13 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -4648,13 +4664,13 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -4753,19 +4769,19 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:8">
@@ -4775,7 +4791,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -4791,7 +4807,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -4806,10 +4822,10 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -4825,7 +4841,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -4840,10 +4856,10 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -4858,10 +4874,10 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -4877,7 +4893,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -4893,7 +4909,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -4909,7 +4925,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -4925,7 +4941,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -4941,7 +4957,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -4957,7 +4973,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -4972,10 +4988,10 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -4991,7 +5007,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -5007,7 +5023,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -5023,7 +5039,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -5039,7 +5055,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -5055,7 +5071,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -5071,7 +5087,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -5086,10 +5102,10 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -5105,7 +5121,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -5121,7 +5137,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -5136,10 +5152,10 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
@@ -5155,7 +5171,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -5171,7 +5187,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
@@ -5186,10 +5202,10 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
@@ -5205,7 +5221,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -5221,7 +5237,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -5236,10 +5252,10 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
@@ -5255,7 +5271,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -5271,7 +5287,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
@@ -5287,7 +5303,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -5303,7 +5319,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -5319,7 +5335,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -5334,8 +5350,8 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="5" t="s">
-        <v>244</v>
+      <c r="F42" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -5349,11 +5365,11 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>245</v>
+      <c r="E43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -5368,8 +5384,8 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="5" t="s">
-        <v>246</v>
+      <c r="F44" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
@@ -5384,8 +5400,8 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="5" t="s">
-        <v>247</v>
+      <c r="F45" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="G45" s="4">
         <v>1</v>
@@ -5399,11 +5415,11 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>248</v>
+      <c r="E46" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
@@ -5417,11 +5433,11 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>249</v>
+      <c r="E47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
@@ -5436,8 +5452,8 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="5" t="s">
-        <v>250</v>
+      <c r="F48" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
@@ -5452,8 +5468,8 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="5" t="s">
-        <v>251</v>
+      <c r="F49" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
@@ -5468,8 +5484,8 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="5" t="s">
-        <v>252</v>
+      <c r="F50" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
@@ -5484,8 +5500,8 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="5" t="s">
-        <v>253</v>
+      <c r="F51" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
@@ -5500,8 +5516,8 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="5" t="s">
-        <v>254</v>
+      <c r="F52" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
@@ -5515,11 +5531,11 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>255</v>
+      <c r="E53" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
@@ -5534,8 +5550,8 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="5" t="s">
-        <v>256</v>
+      <c r="F54" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
@@ -5550,8 +5566,8 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="5" t="s">
-        <v>257</v>
+      <c r="F55" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="G55" s="4">
         <v>0</v>
@@ -5565,11 +5581,11 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>258</v>
+      <c r="E56" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
@@ -5583,11 +5599,11 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>259</v>
+      <c r="E57" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
@@ -5602,8 +5618,8 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="5" t="s">
-        <v>260</v>
+      <c r="F58" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
@@ -5618,8 +5634,8 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="5" t="s">
-        <v>261</v>
+      <c r="F59" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
@@ -5634,10 +5650,10 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>262</v>
+        <v>235</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
@@ -5652,8 +5668,8 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="5" t="s">
-        <v>263</v>
+      <c r="F61" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="G61" s="4">
         <v>0</v>
@@ -5668,8 +5684,8 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="5" t="s">
-        <v>264</v>
+      <c r="F62" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
@@ -5684,8 +5700,8 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="5" t="s">
-        <v>265</v>
+      <c r="F63" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="G63" s="4">
         <v>1</v>
@@ -5700,8 +5716,8 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="5" t="s">
-        <v>266</v>
+      <c r="F64" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="G64" s="4">
         <v>1</v>
@@ -5715,11 +5731,11 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>267</v>
+      <c r="E65" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
@@ -5734,8 +5750,8 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="5" t="s">
-        <v>268</v>
+      <c r="F66" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
@@ -5750,8 +5766,8 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="5" t="s">
-        <v>269</v>
+      <c r="F67" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
@@ -5766,8 +5782,8 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="5" t="s">
-        <v>270</v>
+      <c r="F68" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
@@ -5782,8 +5798,8 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="5" t="s">
-        <v>271</v>
+      <c r="F69" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="G69" s="4">
         <v>0</v>
@@ -5798,8 +5814,8 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="5" t="s">
-        <v>272</v>
+      <c r="F70" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
@@ -5814,8 +5830,8 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="5" t="s">
-        <v>273</v>
+      <c r="F71" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
@@ -5830,8 +5846,8 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="5" t="s">
-        <v>274</v>
+      <c r="F72" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="G72" s="4">
         <v>1</v>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/db/data_init/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{24533369-7725-AB4B-A5FB-CC1CCBE34001}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="280">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -844,19 +850,29 @@
   </si>
   <si>
     <t>2019-10-12</t>
+  </si>
+  <si>
+    <t>2019-4-28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-5-2</t>
+  </si>
+  <si>
+    <t>2019-5-3</t>
+  </si>
+  <si>
+    <t>2019-5-4</t>
+  </si>
+  <si>
+    <t>2019-5-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -867,6 +883,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -874,161 +891,17 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,194 +914,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1251,251 +938,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1507,57 +952,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1630,6 +1028,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2668,88 +2069,86 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2757,8 +2156,9 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2767,24 +2167,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
     <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2793,7 +2190,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2802,7 +2199,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2811,7 +2208,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2820,7 +2217,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2829,7 +2226,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2838,7 +2235,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2855,7 +2252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2870,7 +2267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2885,7 +2282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2900,7 +2297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2915,7 +2312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2930,7 +2327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2945,7 +2342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2960,7 +2357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2975,7 +2372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2990,7 +2387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3005,7 +2402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3021,8 +2418,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -3031,26 +2429,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3060,7 +2457,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3070,7 +2467,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3080,7 +2477,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3090,7 +2487,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3100,7 +2497,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3110,7 +2507,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3130,7 +2527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3148,7 +2545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3166,7 +2563,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3184,7 +2581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3202,7 +2599,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3220,7 +2617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3238,7 +2635,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3256,7 +2653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3274,7 +2671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3292,7 +2689,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3310,7 +2707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3328,7 +2725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3346,7 +2743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3364,7 +2761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3382,7 +2779,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3400,7 +2797,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3418,7 +2815,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3436,7 +2833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3454,7 +2851,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3472,7 +2869,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3490,7 +2887,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3508,7 +2905,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3526,7 +2923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:8">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3544,7 +2941,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="1:8">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3562,7 +2959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:8">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3580,7 +2977,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3598,7 +2995,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="1:8">
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3616,7 +3013,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="1:8">
+    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3634,7 +3031,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="1:8">
+    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3652,7 +3049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="1:8">
+    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3670,7 +3067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="1:8">
+    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3688,7 +3085,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="1:8">
+    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3706,7 +3103,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="1:8">
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3724,7 +3121,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="1:8">
+    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3742,7 +3139,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1" spans="1:8">
+    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3760,7 +3157,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="1:8">
+    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3778,7 +3175,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" ht="17" customHeight="1" spans="1:8">
+    <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3796,7 +3193,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" ht="17" customHeight="1" spans="1:8">
+    <row r="45" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3814,7 +3211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" ht="17" customHeight="1" spans="1:8">
+    <row r="46" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3832,7 +3229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" ht="17" customHeight="1" spans="1:8">
+    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3850,7 +3247,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" ht="17" customHeight="1" spans="1:8">
+    <row r="48" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3868,7 +3265,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" ht="17" customHeight="1" spans="1:8">
+    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3886,7 +3283,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" ht="17" customHeight="1" spans="1:8">
+    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3904,7 +3301,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" ht="17" customHeight="1" spans="1:8">
+    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3923,8 +3320,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3932,26 +3330,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3961,7 +3356,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3971,7 +3366,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3981,7 +3376,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3991,7 +3386,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4001,7 +3396,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4011,7 +3406,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4031,7 +3426,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4049,7 +3444,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4067,7 +3462,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4085,7 +3480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4103,7 +3498,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4121,7 +3516,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4139,7 +3534,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4157,7 +3552,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4175,7 +3570,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4193,7 +3588,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4211,7 +3606,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4229,7 +3624,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4247,7 +3642,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4265,7 +3660,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4283,7 +3678,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4301,7 +3696,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4319,7 +3714,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4338,8 +3733,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4347,24 +3743,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4374,7 +3767,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4384,7 +3777,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4394,7 +3787,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4404,7 +3797,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4414,7 +3807,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4424,7 +3817,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4444,7 +3837,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4462,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4480,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4498,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4516,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4534,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4552,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4570,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4588,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4606,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4624,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4642,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4661,8 +4054,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -4671,24 +4065,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:IV77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A59" sqref="$A56:$XFD59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.8333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="1" customWidth="1"/>
-    <col min="7" max="256" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4698,7 +4091,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4708,7 +4101,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4718,7 +4111,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4728,7 +4121,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4738,7 +4131,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4748,7 +4141,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4768,7 +4161,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4784,7 +4177,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4800,7 +4193,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4818,7 +4211,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4834,7 +4227,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4852,7 +4245,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4870,7 +4263,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4886,7 +4279,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4902,7 +4295,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4918,7 +4311,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4934,7 +4327,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4950,7 +4343,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4966,7 +4359,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4984,7 +4377,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5000,7 +4393,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5016,7 +4409,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5032,7 +4425,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5048,7 +4441,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5064,7 +4457,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5080,7 +4473,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5098,7 +4491,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -5114,7 +4507,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -5130,7 +4523,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:8">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -5148,7 +4541,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="1:8">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -5164,7 +4557,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:8">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -5180,7 +4573,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5198,7 +4591,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="1:8">
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5214,7 +4607,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="1:8">
+    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -5230,7 +4623,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="1:8">
+    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5248,7 +4641,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="1:8">
+    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -5264,7 +4657,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="1:8">
+    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -5280,7 +4673,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="1:8">
+    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -5296,7 +4689,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="1:8">
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -5312,7 +4705,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="1:8">
+    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -5328,7 +4721,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1" spans="1:8">
+    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5344,7 +4737,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="1:8">
+    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5362,7 +4755,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:8">
+    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5378,7 +4771,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:8">
+    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5394,7 +4787,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:8">
+    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5412,7 +4805,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:8">
+    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5430,7 +4823,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:8">
+    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5446,7 +4839,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:8">
+    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5462,7 +4855,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:8">
+    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5478,7 +4871,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:8">
+    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5494,7 +4887,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:8">
+    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5510,7 +4903,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:8">
+    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5528,7 +4921,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:8">
+    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5544,7 +4937,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:8">
+    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5560,34 +4953,32 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:8">
+    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="6" t="s">
-        <v>225</v>
-      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="5" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:8">
+    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
@@ -5596,14 +4987,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:8">
+    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="5" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
@@ -5612,14 +5003,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:8">
+    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="6"/>
       <c r="F59" s="5" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
@@ -5628,16 +5019,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:8">
+    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="E60" s="6"/>
       <c r="F60" s="5" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
@@ -5646,30 +5035,32 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:8">
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="6"/>
       <c r="F61" s="5" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G61" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:8">
+    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="F62" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
@@ -5678,48 +5069,48 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:8">
+    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G63" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:8">
+    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:8">
+    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="6" t="s">
-        <v>237</v>
+      <c r="E65" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
@@ -5728,14 +5119,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:8">
+    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
@@ -5744,14 +5135,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:8">
+    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
@@ -5760,46 +5151,48 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:8">
+    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:8">
+    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:8">
+    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="F70" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
@@ -5808,14 +5201,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:8">
+    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
@@ -5824,25 +5217,106 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:8">
+    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="4">
         <v>2019</v>
       </c>
     </row>
+    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/db/data_init/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD10B42F-579C-5249-A4F3-DAFD6EDAD5DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="282">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -850,19 +856,29 @@
   </si>
   <si>
     <t>2019-10-12</t>
+  </si>
+  <si>
+    <t>2019-4-28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-5-2</t>
+  </si>
+  <si>
+    <t>2019-5-3</t>
+  </si>
+  <si>
+    <t>2019-5-4</t>
+  </si>
+  <si>
+    <t>2019-5-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -874,161 +890,24 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,194 +920,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1251,311 +944,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1628,6 +1033,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2666,88 +2074,86 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2755,8 +2161,9 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2765,24 +2172,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
     <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2791,7 +2195,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2800,7 +2204,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2809,7 +2213,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2818,7 +2222,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2827,7 +2231,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2836,7 +2240,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2853,7 +2257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2868,7 +2272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2883,7 +2287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2898,7 +2302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2913,7 +2317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2928,7 +2332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2943,7 +2347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2958,7 +2362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2973,7 +2377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2988,7 +2392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3003,7 +2407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3019,8 +2423,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -3029,26 +2434,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3058,7 +2462,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3068,7 +2472,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3078,7 +2482,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3088,7 +2492,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3098,7 +2502,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3108,7 +2512,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3128,7 +2532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3146,7 +2550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3164,7 +2568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3182,7 +2586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3200,7 +2604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3218,7 +2622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3236,7 +2640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3254,7 +2658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3272,7 +2676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3290,7 +2694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3308,7 +2712,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3326,7 +2730,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3344,7 +2748,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3362,7 +2766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3380,7 +2784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3398,7 +2802,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3416,7 +2820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3434,7 +2838,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3452,7 +2856,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3470,7 +2874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3488,7 +2892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3506,7 +2910,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3524,7 +2928,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:8">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3542,7 +2946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="1:8">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3560,7 +2964,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:8">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3578,7 +2982,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3596,7 +3000,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="1:8">
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3614,7 +3018,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="1:8">
+    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3632,7 +3036,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="1:8">
+    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3650,7 +3054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="1:8">
+    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3668,7 +3072,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="1:8">
+    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3686,7 +3090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="1:8">
+    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3704,7 +3108,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="1:8">
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3722,7 +3126,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="1:8">
+    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3740,7 +3144,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1" spans="1:8">
+    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3758,7 +3162,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="1:8">
+    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3776,7 +3180,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" ht="17" customHeight="1" spans="1:8">
+    <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3794,7 +3198,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" ht="17" customHeight="1" spans="1:8">
+    <row r="45" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3812,7 +3216,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" ht="17" customHeight="1" spans="1:8">
+    <row r="46" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3830,7 +3234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" ht="17" customHeight="1" spans="1:8">
+    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3848,7 +3252,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" ht="17" customHeight="1" spans="1:8">
+    <row r="48" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3866,7 +3270,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" ht="17" customHeight="1" spans="1:8">
+    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3884,7 +3288,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" ht="17" customHeight="1" spans="1:8">
+    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3902,7 +3306,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" ht="17" customHeight="1" spans="1:8">
+    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3920,7 +3324,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" ht="17" customHeight="1" spans="1:8">
+    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3939,8 +3343,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3948,26 +3353,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3977,7 +3379,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3987,7 +3389,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3997,7 +3399,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4007,7 +3409,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4017,7 +3419,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4027,7 +3429,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4047,7 +3449,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4065,7 +3467,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4083,7 +3485,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4101,7 +3503,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4119,7 +3521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4137,7 +3539,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4155,7 +3557,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4173,7 +3575,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4191,7 +3593,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4209,7 +3611,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4227,7 +3629,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4245,7 +3647,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4263,7 +3665,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4281,7 +3683,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4299,7 +3701,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4317,7 +3719,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4335,7 +3737,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4354,8 +3756,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4363,24 +3766,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4390,7 +3790,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4400,7 +3800,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4410,7 +3810,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4420,7 +3820,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4430,7 +3830,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4440,7 +3840,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4460,7 +3860,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4478,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4496,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4514,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4532,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4550,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4568,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4586,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4604,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4622,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4640,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4658,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4677,8 +4077,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -4687,24 +4088,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:IV77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A59" sqref="$A56:$XFD59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.8333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="1" customWidth="1"/>
-    <col min="7" max="256" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4714,7 +4114,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4724,7 +4124,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4734,7 +4134,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4744,7 +4144,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4754,7 +4154,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4764,7 +4164,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4784,7 +4184,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4800,7 +4200,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4816,7 +4216,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4834,7 +4234,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4850,7 +4250,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4868,7 +4268,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4886,7 +4286,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4902,7 +4302,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4918,7 +4318,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4934,7 +4334,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4950,7 +4350,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4966,7 +4366,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4982,7 +4382,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5000,7 +4400,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5016,7 +4416,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5032,7 +4432,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5048,7 +4448,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5064,7 +4464,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5080,7 +4480,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5096,7 +4496,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5114,7 +4514,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -5130,7 +4530,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -5146,7 +4546,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:8">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -5164,7 +4564,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="1:8">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -5180,7 +4580,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:8">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -5196,7 +4596,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5214,7 +4614,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="1:8">
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5230,7 +4630,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="1:8">
+    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -5246,7 +4646,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="1:8">
+    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5264,7 +4664,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="1:8">
+    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -5280,7 +4680,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="1:8">
+    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -5296,7 +4696,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="1:8">
+    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -5312,7 +4712,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="1:8">
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -5328,7 +4728,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="1:8">
+    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -5344,7 +4744,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1" spans="1:8">
+    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5360,7 +4760,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="1:8">
+    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5378,7 +4778,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:8">
+    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5394,7 +4794,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:8">
+    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5410,7 +4810,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:8">
+    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5428,7 +4828,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:8">
+    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5446,7 +4846,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:8">
+    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5462,7 +4862,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:8">
+    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5478,7 +4878,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:8">
+    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5494,7 +4894,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:8">
+    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5510,7 +4910,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:8">
+    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5526,7 +4926,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:8">
+    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5544,7 +4944,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:8">
+    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5560,7 +4960,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:8">
+    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5576,34 +4976,32 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:8">
+    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>260</v>
+      <c r="E56" s="2"/>
+      <c r="F56" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="G56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:8">
+    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
@@ -5612,14 +5010,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:8">
+    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="3" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
@@ -5628,14 +5026,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:8">
+    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="3" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
@@ -5644,16 +5042,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:8">
+    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="3" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
@@ -5662,30 +5058,32 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:8">
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="3" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="G61" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:8">
+    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="F62" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
@@ -5694,48 +5092,48 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:8">
+    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G63" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:8">
+    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:8">
+    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
@@ -5744,14 +5142,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:8">
+    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
@@ -5760,14 +5158,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:8">
+    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
@@ -5776,46 +5174,48 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:8">
+    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:8">
+    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:8">
+    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="F70" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
@@ -5824,14 +5224,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:8">
+    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
@@ -5840,25 +5240,106 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:8">
+    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="4">
         <v>2019</v>
       </c>
     </row>
+    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/db/data_init/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD10B42F-579C-5249-A4F3-DAFD6EDAD5DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="14400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -138,6 +132,24 @@
     <t>issue状态颜色</t>
   </si>
   <si>
+    <t>feedback_type_category</t>
+  </si>
+  <si>
+    <t>Feedback Type Category</t>
+  </si>
+  <si>
+    <t>反馈单类型类别</t>
+  </si>
+  <si>
+    <t>feedback_status_category</t>
+  </si>
+  <si>
+    <t>Feedback Status Category</t>
+  </si>
+  <si>
+    <t>反馈单状态类别</t>
+  </si>
+  <si>
     <t>agile_lookup_value</t>
   </si>
   <si>
@@ -447,6 +459,39 @@
     <t>prepare列颜色</t>
   </si>
   <si>
+    <t>question_consultation</t>
+  </si>
+  <si>
+    <t>问题咨询</t>
+  </si>
+  <si>
+    <t>bug_report</t>
+  </si>
+  <si>
+    <t>缺陷报告</t>
+  </si>
+  <si>
+    <t>recommendation_and_opinion</t>
+  </si>
+  <si>
+    <t>建议与意见</t>
+  </si>
+  <si>
+    <t>待处理</t>
+  </si>
+  <si>
+    <t>处理中</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>已取消</t>
+  </si>
+  <si>
     <t>agile_quick_filter_field</t>
   </si>
   <si>
@@ -807,9 +852,24 @@
     <t>2019-4-7</t>
   </si>
   <si>
+    <t>2019-4-28</t>
+  </si>
+  <si>
     <t>2019-5-1</t>
   </si>
   <si>
+    <t>2019-5-2</t>
+  </si>
+  <si>
+    <t>2019-5-3</t>
+  </si>
+  <si>
+    <t>2019-5-4</t>
+  </si>
+  <si>
+    <t>2019-5-5</t>
+  </si>
+  <si>
     <t>2019-6-7</t>
   </si>
   <si>
@@ -856,29 +916,25 @@
   </si>
   <si>
     <t>2019-10-12</t>
-  </si>
-  <si>
-    <t>2019-4-28</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-5-2</t>
-  </si>
-  <si>
-    <t>2019-5-3</t>
-  </si>
-  <si>
-    <t>2019-5-4</t>
-  </si>
-  <si>
-    <t>2019-5-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -890,24 +946,161 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="4"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,8 +1113,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -944,9 +1323,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -957,10 +1578,57 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1033,9 +1701,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2074,86 +2739,88 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9.83333333333333" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17" customHeight="1" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17" customHeight="1" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2161,9 +2828,8 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2172,21 +2838,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.83333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" style="1" customWidth="1"/>
     <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2195,7 +2864,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2204,7 +2873,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2213,7 +2882,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2222,7 +2891,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2231,7 +2900,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2240,11 +2909,11 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2257,7 +2926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17" customHeight="1" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2272,7 +2941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17" customHeight="1" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2287,7 +2956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17" customHeight="1" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2302,7 +2971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="17" customHeight="1" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2317,7 +2986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="17" customHeight="1" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2332,7 +3001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="17" customHeight="1" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2347,7 +3016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="17" customHeight="1" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2362,7 +3031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="17" customHeight="1" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2377,7 +3046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="17" customHeight="1" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2392,7 +3061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="17" customHeight="1" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2407,7 +3076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="17" customHeight="1" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2422,10 +3091,39 @@
         <v>36</v>
       </c>
     </row>
+    <row r="19" ht="17" customHeight="1" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2434,25 +3132,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1666666666667" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2462,7 +3161,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2472,7 +3171,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2482,7 +3181,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2492,7 +3191,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2502,7 +3201,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2512,18 +3211,18 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>2</v>
@@ -2532,820 +3231,945 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="1" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" ht="17" customHeight="1" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="1" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" ht="17" customHeight="1" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" ht="17" customHeight="1" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" ht="17" customHeight="1" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" ht="17" customHeight="1" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" ht="17" customHeight="1" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" ht="17" customHeight="1" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" ht="17" customHeight="1" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" ht="17" customHeight="1" spans="1:8">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" ht="17" customHeight="1" spans="1:8">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" ht="17" customHeight="1" spans="1:8">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" ht="17" customHeight="1" spans="1:8">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" ht="17" customHeight="1" spans="1:8">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" ht="17" customHeight="1" spans="1:8">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" ht="17" customHeight="1" spans="1:8">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" ht="17" customHeight="1" spans="1:8">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" ht="17" customHeight="1" spans="1:8">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" ht="17" customHeight="1" spans="1:8">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" ht="17" customHeight="1" spans="1:8">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" ht="17" customHeight="1" spans="1:8">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" ht="17" customHeight="1" spans="1:8">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" ht="17" customHeight="1" spans="1:8">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" ht="17" customHeight="1" spans="1:8">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" ht="17" customHeight="1" spans="1:8">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" ht="17" customHeight="1" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" ht="17" customHeight="1" spans="1:8">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" ht="17" customHeight="1" spans="1:8">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" ht="17" customHeight="1" spans="1:8">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" ht="17" customHeight="1" spans="1:8">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" ht="17" customHeight="1" spans="1:8">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" ht="17" customHeight="1" spans="1:8">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" ht="17" customHeight="1" spans="1:8">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" ht="17" customHeight="1" spans="1:8">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" ht="17" customHeight="1" spans="1:8">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" ht="17" customHeight="1" spans="1:8">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" ht="17" customHeight="1" spans="1:8">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3353,23 +4177,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:IV24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3333333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3379,7 +4206,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3389,7 +4216,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3399,7 +4226,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3409,7 +4236,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3419,7 +4246,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3429,45 +4256,45 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3476,268 +4303,268 @@
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="1" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" ht="17" customHeight="1" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="1" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3746,19 +4573,18 @@
         <v>16</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3766,21 +4592,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:IV19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.83333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.6666666666667" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3790,7 +4619,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3800,7 +4629,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3810,7 +4639,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3820,7 +4649,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3830,7 +4659,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3840,246 +4669,245 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
-        <v>187</v>
+      <c r="D7" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -4088,23 +4916,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:IV77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8333333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="1" customWidth="1"/>
-    <col min="7" max="256" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="10.8333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4114,7 +4943,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4124,7 +4953,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4134,7 +4963,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4144,7 +4973,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4154,7 +4983,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4164,34 +4993,34 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -4200,14 +5029,14 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -4216,16 +5045,16 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -4234,14 +5063,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -4250,16 +5079,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -4268,16 +5097,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -4286,14 +5115,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -4302,14 +5131,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -4318,14 +5147,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -4334,14 +5163,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -4350,14 +5179,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -4366,14 +5195,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -4382,16 +5211,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="17" customHeight="1" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -4400,14 +5229,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="17" customHeight="1" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -4416,14 +5245,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="17" customHeight="1" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -4432,14 +5261,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="17" customHeight="1" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -4448,14 +5277,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="17" customHeight="1" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -4464,14 +5293,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="17" customHeight="1" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -4480,14 +5309,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="17" customHeight="1" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -4496,16 +5325,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="17" customHeight="1" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -4514,14 +5343,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="17" customHeight="1" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -4530,14 +5359,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="17" customHeight="1" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -4546,16 +5375,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="17" customHeight="1" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
@@ -4564,14 +5393,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="17" customHeight="1" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -4580,14 +5409,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="17" customHeight="1" spans="1:8">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
@@ -4596,16 +5425,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="17" customHeight="1" spans="1:8">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
@@ -4614,14 +5443,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="17" customHeight="1" spans="1:8">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -4630,14 +5459,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="17" customHeight="1" spans="1:8">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -4646,16 +5475,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="17" customHeight="1" spans="1:8">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
@@ -4664,14 +5493,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="17" customHeight="1" spans="1:8">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -4680,14 +5509,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="17" customHeight="1" spans="1:8">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
@@ -4696,14 +5525,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="17" customHeight="1" spans="1:8">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -4712,14 +5541,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="17" customHeight="1" spans="1:8">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -4728,14 +5557,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="17" customHeight="1" spans="1:8">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -4744,14 +5573,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="17" customHeight="1" spans="1:8">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -4760,16 +5589,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="17" customHeight="1" spans="1:8">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -4778,14 +5607,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
@@ -4794,14 +5623,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="G45" s="4">
         <v>1</v>
@@ -4810,16 +5639,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" customHeight="1" spans="1:8">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
@@ -4828,16 +5657,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
@@ -4846,14 +5675,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="3" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
@@ -4862,14 +5691,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
@@ -4878,14 +5707,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="3" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
@@ -4894,14 +5723,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" customHeight="1" spans="1:8">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="3" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
@@ -4910,14 +5739,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" customHeight="1" spans="1:8">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="3" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
@@ -4926,16 +5755,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
@@ -4944,14 +5773,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="3" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
@@ -4960,14 +5789,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="3" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="G55" s="4">
         <v>0</v>
@@ -4976,13 +5805,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>277</v>
       </c>
       <c r="G56" s="4">
@@ -4992,16 +5821,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
@@ -5010,14 +5839,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
@@ -5026,14 +5855,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
@@ -5042,14 +5871,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
@@ -5058,14 +5887,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G61" s="4">
         <v>1</v>
@@ -5074,16 +5903,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
@@ -5092,14 +5921,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="3" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="G63" s="4">
         <v>0</v>
@@ -5108,14 +5937,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="3" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
@@ -5124,16 +5953,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" customHeight="1" spans="1:8">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
@@ -5142,14 +5971,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="3" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
@@ -5158,14 +5987,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="3" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
@@ -5174,14 +6003,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="3" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="G68" s="4">
         <v>1</v>
@@ -5190,14 +6019,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="3" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="G69" s="4">
         <v>1</v>
@@ -5206,16 +6035,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
@@ -5224,14 +6053,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
@@ -5240,14 +6069,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="3" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G72" s="4">
         <v>0</v>
@@ -5256,14 +6085,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="3" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G73" s="4">
         <v>0</v>
@@ -5272,14 +6101,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" customHeight="1" spans="1:8">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="3" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
@@ -5288,14 +6117,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" customHeight="1" spans="1:8">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
@@ -5304,14 +6133,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" customHeight="1" spans="1:8">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="3" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="G76" s="4">
         <v>0</v>
@@ -5320,14 +6149,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="G77" s="4">
         <v>1</v>
@@ -5337,9 +6166,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/db/data_init/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FFF8573F-B6B7-7B40-9E81-1F03C1B384E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="agile_lookup_type" sheetId="2" r:id="rId2"/>
-    <sheet name="agile_lookup_value" sheetId="3" r:id="rId3"/>
+    <sheet name="lookup_type" sheetId="2" r:id="rId2"/>
+    <sheet name="lookup_value" sheetId="3" r:id="rId3"/>
     <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId4"/>
     <sheet name="agile_message" sheetId="5" r:id="rId5"/>
     <sheet name="agile_work_calendar_holiday_ref" sheetId="6" r:id="rId6"/>
+    <sheet name="fd_object_shceme_field" sheetId="7" r:id="rId7"/>
+    <sheet name="fd_object_scheme" sheetId="8" r:id="rId8"/>
+    <sheet name="fd_page" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299">
-  <si>
-    <t>agile_lookup_type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="485">
   <si>
     <t>#type_code</t>
   </si>
@@ -150,9 +156,6 @@
     <t>反馈单状态类别</t>
   </si>
   <si>
-    <t>agile_lookup_value</t>
-  </si>
-  <si>
     <t>#value_code</t>
   </si>
   <si>
@@ -916,19 +919,852 @@
   </si>
   <si>
     <t>2019-10-12</t>
+  </si>
+  <si>
+    <t>state_machine_status</t>
+  </si>
+  <si>
+    <t>State Machine Status</t>
+  </si>
+  <si>
+    <t>状态机状态</t>
+  </si>
+  <si>
+    <t>state_machine_config</t>
+  </si>
+  <si>
+    <t>State Machine Config</t>
+  </si>
+  <si>
+    <t>状态机配置</t>
+  </si>
+  <si>
+    <t>state_machine_node</t>
+  </si>
+  <si>
+    <t>State Machine Node</t>
+  </si>
+  <si>
+    <t>状态机节点</t>
+  </si>
+  <si>
+    <t>state_machine_transform</t>
+  </si>
+  <si>
+    <t>State Machine Transform</t>
+  </si>
+  <si>
+    <t>状态机转换</t>
+  </si>
+  <si>
+    <t>status_category_color</t>
+  </si>
+  <si>
+    <t>Status Category Color</t>
+  </si>
+  <si>
+    <t>状态类别颜色</t>
+  </si>
+  <si>
+    <t>condition_strategy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition Strategy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件策略</t>
+    <rPh sb="0" eb="2">
+      <t>t j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_scheme_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象方案编码</t>
+    <rPh sb="0" eb="2">
+      <t>dui x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象方案编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面编码</t>
+    <rPh sb="0" eb="2">
+      <t>ye m</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_scheme_field_context</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象方案字段上下文</t>
+    <rPh sb="0" eb="1">
+      <t>dui x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <rPh sb="0" eb="2">
+      <t>zi d</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>state_machine_draft</t>
+  </si>
+  <si>
+    <t>草稿状态</t>
+  </si>
+  <si>
+    <t>state_machine_active</t>
+  </si>
+  <si>
+    <t>活跃状态</t>
+  </si>
+  <si>
+    <t>state_machine_create</t>
+  </si>
+  <si>
+    <t>新建状态</t>
+  </si>
+  <si>
+    <t>config_condition</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>config_validator</t>
+  </si>
+  <si>
+    <t>验证器</t>
+  </si>
+  <si>
+    <t>config_trigger</t>
+  </si>
+  <si>
+    <t>触发器</t>
+  </si>
+  <si>
+    <t>config_postposition</t>
+  </si>
+  <si>
+    <t>后置功能</t>
+  </si>
+  <si>
+    <t>node_init</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认初始化节点</t>
+  </si>
+  <si>
+    <t>node_start</t>
+  </si>
+  <si>
+    <t>开始节点</t>
+  </si>
+  <si>
+    <t>node_custom</t>
+  </si>
+  <si>
+    <t>自定义节点</t>
+  </si>
+  <si>
+    <t>transform_init</t>
+  </si>
+  <si>
+    <t>初始转换</t>
+  </si>
+  <si>
+    <t>transform_custom</t>
+  </si>
+  <si>
+    <t>自定义转换</t>
+  </si>
+  <si>
+    <t>transform_all</t>
+  </si>
+  <si>
+    <t>全部转换</t>
+  </si>
+  <si>
+    <t>color_status_todo</t>
+  </si>
+  <si>
+    <t>待处理状态类别颜色</t>
+  </si>
+  <si>
+    <t>color_status_doing</t>
+  </si>
+  <si>
+    <t>处理中状态类别颜色</t>
+  </si>
+  <si>
+    <t>color_status_done</t>
+  </si>
+  <si>
+    <t>已完成状态类别颜色</t>
+  </si>
+  <si>
+    <t>condition_all</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足所有条件</t>
+    <rPh sb="0" eb="2">
+      <t>m zu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile_issue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题</t>
+    <rPh sb="0" eb="2">
+      <t>m jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_issue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题</t>
+    <rPh sb="0" eb="2">
+      <t>ce s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile_issue_create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面（创建）</t>
+    <rPh sb="0" eb="1">
+      <t>m jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile_issue_edit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面（编辑）</t>
+    <rPh sb="0" eb="6">
+      <t>m jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_issue_create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题页面（创建）</t>
+    <rPh sb="0" eb="6">
+      <t>c s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_issue_edit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题页面（编辑）</t>
+    <rPh sb="0" eb="6">
+      <t>c sm jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部类型</t>
+    <rPh sb="0" eb="1">
+      <t>quan bu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部类型</t>
+    <rPh sb="0" eb="1">
+      <t>q bu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性</t>
+    <rPh sb="0" eb="2">
+      <t>te x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue_epic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <rPh sb="0" eb="2">
+      <t>shi s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <rPh sb="0" eb="2">
+      <t>s shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事</t>
+    <rPh sb="0" eb="2">
+      <t>gu s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷</t>
+    <rPh sb="0" eb="2">
+      <t>que x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <rPh sb="0" eb="2">
+      <t>r wu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>子任务</t>
+    <rPh sb="0" eb="2">
+      <t>r wu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkbox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间选择器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择器</t>
+    <rPh sb="0" eb="7">
+      <t>shi j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字输入框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框（单行）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框（多行）</t>
+    <rPh sb="0" eb="2">
+      <t>wen ben</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器（单选）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器（多选）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <rPh sb="0" eb="2">
+      <t>ren y</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员（需要特定加载用户）</t>
+    <rPh sb="0" eb="1">
+      <t>ren y</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择器</t>
+    <rPh sb="0" eb="5">
+      <t>shi j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择器</t>
+    <rPh sb="0" eb="1">
+      <t>ri q</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>featureType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收标准</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>acceptanceCritera</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性价值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>benfitHypothesis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>时间跟踪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间跟踪</t>
+    <rPh sb="0" eb="2">
+      <t>shi j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeTrace</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <rPh sb="0" eb="2">
+      <t>g x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastUpdateDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <rPh sb="0" eb="2">
+      <t>c j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>creationDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <rPh sb="0" eb="2">
+      <t>j b r</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignee</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告人</t>
+    <rPh sb="0" eb="2">
+      <t>bao g r</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗名称</t>
+    <rPh sb="0" eb="2">
+      <t>shi s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>epicName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprint</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>epic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复的版本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixVersion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响的版本</t>
+    <rPh sb="0" eb="2">
+      <t>y x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>influenceVersion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <rPh sb="0" eb="2">
+      <t>biao q</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <rPh sb="0" eb="2">
+      <t>mo k</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <rPh sb="0" eb="2">
+      <t>z tai</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事点</t>
+    <rPh sb="0" eb="2">
+      <t>gu shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>storyPoints</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估时间</t>
+    <rPh sb="0" eb="2">
+      <t>yu gu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remainingTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="2">
+      <t>miao s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>gai yao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型</t>
+    <rPh sb="0" eb="2">
+      <t>w t l x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheme_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_required</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_system</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#scheme_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题字段方案</t>
+    <rPh sb="0" eb="8">
+      <t>w ti</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#page_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面【创建】</t>
+    <rPh sb="0" eb="6">
+      <t>c j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面【编辑】</t>
+    <rPh sb="0" eb="6">
+      <t>bian ji</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lookup_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lookup_value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_object_scheme_field</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_object_scheme</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_page</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#type_code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -939,6 +1775,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -946,161 +1783,43 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,194 +1832,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1324,252 +1857,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1577,58 +1884,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{E0E93D4D-DC33-5245-B9F4-75E128993F91}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1701,6 +1976,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2739,88 +3017,86 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2828,8 +3104,9 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2838,24 +3115,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
     <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2864,7 +3140,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2873,7 +3149,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2882,7 +3158,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2891,7 +3167,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2900,7 +3176,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2909,221 +3185,372 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="10" spans="1:7" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="19" spans="1:7" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="20" spans="1:7" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>42</v>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -3132,26 +3559,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3161,7 +3587,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3171,7 +3597,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3181,7 +3607,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3191,7 +3617,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3201,7 +3627,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3211,965 +3637,1704 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>43</v>
+      <c r="D7" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" ht="17" customHeight="1" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" ht="17" customHeight="1" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" ht="17" customHeight="1" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" ht="17" customHeight="1" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" ht="17" customHeight="1" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" ht="17" customHeight="1" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" ht="17" customHeight="1" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" ht="17" customHeight="1" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" ht="17" customHeight="1" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" ht="17" customHeight="1" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" ht="17" customHeight="1" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" ht="17" customHeight="1" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" ht="17" customHeight="1" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="38" spans="1:8" ht="17" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="39" spans="1:8" ht="17" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="41" spans="1:8" ht="17" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="42" spans="1:8" ht="17" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="43" spans="1:8" ht="17" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="44" spans="1:8" ht="17" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="45" spans="1:8" ht="17" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" ht="17" customHeight="1" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" ht="17" customHeight="1" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" ht="17" customHeight="1" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="49" spans="1:8" ht="17" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="50" spans="1:8" ht="17" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="51" spans="1:8" ht="17" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="52" spans="1:8" ht="17" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="53" spans="1:8" ht="17" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" ht="17" customHeight="1" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" ht="17" customHeight="1" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" ht="17" customHeight="1" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" ht="17" customHeight="1" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" ht="17" customHeight="1" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" ht="17" customHeight="1" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4177,26 +5342,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4206,7 +5368,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4216,7 +5378,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4226,7 +5388,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4236,7 +5398,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4246,7 +5408,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4256,335 +5418,336 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4592,24 +5755,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" style="1" customWidth="1"/>
     <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4619,7 +5779,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4629,7 +5789,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4639,7 +5799,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4649,7 +5809,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4659,7 +5819,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4669,245 +5829,246 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -4916,24 +6077,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:IV77"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.8333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="1" customWidth="1"/>
-    <col min="7" max="256" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4943,7 +6103,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4953,7 +6113,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4963,7 +6123,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4973,7 +6133,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4983,7 +6143,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4993,34 +6153,34 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -5029,14 +6189,14 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -5045,16 +6205,16 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -5063,14 +6223,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -5079,16 +6239,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -5097,16 +6257,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -5115,14 +6275,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -5131,14 +6291,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -5147,14 +6307,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -5163,14 +6323,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -5179,14 +6339,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -5195,14 +6355,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -5211,16 +6371,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -5229,14 +6389,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -5245,14 +6405,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -5261,14 +6421,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -5277,14 +6437,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -5293,14 +6453,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" ht="17" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -5309,14 +6469,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" ht="17" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -5325,16 +6485,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" ht="17" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -5343,14 +6503,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" ht="17" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -5359,14 +6519,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" ht="17" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -5375,16 +6535,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:8">
+    <row r="30" spans="1:8" ht="17" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
@@ -5393,14 +6553,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="1:8">
+    <row r="31" spans="1:8" ht="17" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -5409,14 +6569,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:8">
+    <row r="32" spans="1:8" ht="17" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
@@ -5425,16 +6585,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" ht="17" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
@@ -5443,14 +6603,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="1:8">
+    <row r="34" spans="1:8" ht="17" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -5459,14 +6619,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="1:8">
+    <row r="35" spans="1:8" ht="17" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -5475,16 +6635,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="1:8">
+    <row r="36" spans="1:8" ht="17" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
@@ -5493,14 +6653,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="1:8">
+    <row r="37" spans="1:8" ht="17" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -5509,14 +6669,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="1:8">
+    <row r="38" spans="1:8" ht="17" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
@@ -5525,14 +6685,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="1:8">
+    <row r="39" spans="1:8" ht="17" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -5541,14 +6701,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="1:8">
+    <row r="40" spans="1:8" ht="17" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -5557,14 +6717,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="1:8">
+    <row r="41" spans="1:8" ht="17" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -5573,14 +6733,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1" spans="1:8">
+    <row r="42" spans="1:8" ht="17" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -5589,16 +6749,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="1:8">
+    <row r="43" spans="1:8" ht="17" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -5607,14 +6767,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:8">
+    <row r="44" spans="1:8" ht="16" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
@@ -5623,14 +6783,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:8">
+    <row r="45" spans="1:8" ht="16" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G45" s="4">
         <v>1</v>
@@ -5639,16 +6799,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:8">
+    <row r="46" spans="1:8" ht="16" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
@@ -5657,16 +6817,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:8">
+    <row r="47" spans="1:8" ht="16" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
@@ -5675,14 +6835,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:8">
+    <row r="48" spans="1:8" ht="16" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
@@ -5691,14 +6851,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:8">
+    <row r="49" spans="1:8" ht="16" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
@@ -5707,14 +6867,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:8">
+    <row r="50" spans="1:8" ht="16" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
@@ -5723,14 +6883,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:8">
+    <row r="51" spans="1:8" ht="16" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
@@ -5739,14 +6899,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:8">
+    <row r="52" spans="1:8" ht="16" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
@@ -5755,16 +6915,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:8">
+    <row r="53" spans="1:8" ht="16" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
@@ -5773,14 +6933,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:8">
+    <row r="54" spans="1:8" ht="16" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
@@ -5789,14 +6949,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:8">
+    <row r="55" spans="1:8" ht="16" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G55" s="4">
         <v>0</v>
@@ -5805,14 +6965,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:8">
+    <row r="56" spans="1:8" ht="16" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G56" s="4">
         <v>1</v>
@@ -5821,16 +6981,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:8">
+    <row r="57" spans="1:8" ht="16" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
@@ -5839,14 +6999,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:8">
+    <row r="58" spans="1:8" ht="16" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
@@ -5855,14 +7015,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:8">
+    <row r="59" spans="1:8" ht="16" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
@@ -5871,14 +7031,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:8">
+    <row r="60" spans="1:8" ht="16" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
@@ -5887,14 +7047,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:8">
+    <row r="61" spans="1:8" ht="16" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G61" s="4">
         <v>1</v>
@@ -5903,16 +7063,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:8">
+    <row r="62" spans="1:8" ht="16" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
@@ -5921,14 +7081,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:8">
+    <row r="63" spans="1:8" ht="16" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G63" s="4">
         <v>0</v>
@@ -5937,14 +7097,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:8">
+    <row r="64" spans="1:8" ht="16" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
@@ -5953,16 +7113,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:8">
+    <row r="65" spans="1:8" ht="16" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
@@ -5971,14 +7131,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:8">
+    <row r="66" spans="1:8" ht="16" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
@@ -5987,14 +7147,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:8">
+    <row r="67" spans="1:8" ht="16" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
@@ -6003,14 +7163,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:8">
+    <row r="68" spans="1:8" ht="16" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G68" s="4">
         <v>1</v>
@@ -6019,14 +7179,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:8">
+    <row r="69" spans="1:8" ht="16" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G69" s="4">
         <v>1</v>
@@ -6035,16 +7195,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:8">
+    <row r="70" spans="1:8" ht="16" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
@@ -6053,14 +7213,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:8">
+    <row r="71" spans="1:8" ht="16" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
@@ -6069,14 +7229,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:8">
+    <row r="72" spans="1:8" ht="16" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G72" s="4">
         <v>0</v>
@@ -6085,14 +7245,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:8">
+    <row r="73" spans="1:8" ht="16" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G73" s="4">
         <v>0</v>
@@ -6101,14 +7261,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:8">
+    <row r="74" spans="1:8" ht="16" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
@@ -6117,14 +7277,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:8">
+    <row r="75" spans="1:8" ht="16" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
@@ -6133,14 +7293,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:8">
+    <row r="76" spans="1:8" ht="16" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G76" s="4">
         <v>0</v>
@@ -6149,14 +7309,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:8">
+    <row r="77" spans="1:8" ht="16" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G77" s="4">
         <v>1</v>
@@ -6166,10 +7326,1288 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7483CBA0-3BCE-EF47-9364-2D6D5042D47F}">
+  <dimension ref="A1:JD35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="9" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18" style="8" customWidth="1"/>
+    <col min="5" max="5" width="27" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="8" customWidth="1"/>
+    <col min="7" max="13" width="29.6640625" style="8" customWidth="1"/>
+    <col min="14" max="16" width="23.1640625" style="8" customWidth="1"/>
+    <col min="17" max="264" width="9" style="8" customWidth="1"/>
+    <col min="265" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" ht="17" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" ht="17" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" ht="21" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" ht="21" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" ht="21" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" ht="21" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" ht="21" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" ht="21" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" ht="21" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" ht="21" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" ht="21" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" ht="21" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD7E80B-6FE3-DD43-B03B-F6E5416DED27}">
+  <dimension ref="D7:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="18.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="17.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8">
+      <c r="D7" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="E8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA53A3E-4D4B-9545-B3F9-150BB93EDBDC}">
+  <dimension ref="D7:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="7"/>
+    <col min="5" max="5" width="15.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:9">
+      <c r="D7" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="E8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="E9" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -567,7 +567,7 @@
     <t>处理中</t>
   </si>
   <si>
-    <t>feedbackdone</t>
+    <t>feedback_done</t>
   </si>
   <si>
     <t>已完成</t>
@@ -1349,18 +1349,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1388,14 +1382,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1409,10 +1403,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1424,11 +1425,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1440,8 +1440,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1457,9 +1458,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1471,8 +1480,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1486,9 +1510,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1496,43 +1526,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1553,19 +1547,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,13 +1601,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,145 +1727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,8 +1774,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1797,56 +1791,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,88 +1813,138 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1959,91 +1953,89 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3221,8 +3213,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="9.83333333333333" style="11" customWidth="1"/>
-    <col min="6" max="256" width="9" style="11" customWidth="1"/>
+    <col min="1" max="5" width="9.83333333333333" style="10" customWidth="1"/>
+    <col min="6" max="256" width="9" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:5">
@@ -3316,11 +3308,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19" style="11" customWidth="1"/>
-    <col min="5" max="6" width="30.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" style="11" customWidth="1"/>
-    <col min="8" max="256" width="9" style="11" customWidth="1"/>
+    <col min="1" max="3" width="9.83333333333333" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19" style="10" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" style="10" customWidth="1"/>
+    <col min="8" max="256" width="9" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:7">
@@ -3381,16 +3373,16 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3399,13 +3391,13 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3414,13 +3406,13 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3429,13 +3421,13 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3444,13 +3436,13 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3459,13 +3451,13 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3474,13 +3466,13 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3489,13 +3481,13 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3504,13 +3496,13 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3519,13 +3511,13 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3534,13 +3526,13 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3549,13 +3541,13 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3564,13 +3556,13 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3579,13 +3571,13 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3754,19 +3746,19 @@
   <sheetPr/>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18" style="11" customWidth="1"/>
-    <col min="5" max="5" width="27" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.3333333333333" style="11" customWidth="1"/>
-    <col min="7" max="7" width="29.6666666666667" style="11" customWidth="1"/>
-    <col min="8" max="8" width="23.1666666666667" style="11" customWidth="1"/>
-    <col min="9" max="256" width="9" style="11" customWidth="1"/>
+    <col min="1" max="3" width="9" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18" style="10" customWidth="1"/>
+    <col min="5" max="5" width="27" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" style="10" customWidth="1"/>
+    <col min="7" max="7" width="29.6666666666667" style="10" customWidth="1"/>
+    <col min="8" max="8" width="23.1666666666667" style="10" customWidth="1"/>
+    <col min="9" max="256" width="9" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:8">
@@ -3833,19 +3825,19 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3854,16 +3846,16 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3872,16 +3864,16 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3890,16 +3882,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3908,16 +3900,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3926,16 +3918,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3944,16 +3936,16 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3962,16 +3954,16 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3980,16 +3972,16 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3998,16 +3990,16 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4016,16 +4008,16 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4034,16 +4026,16 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4052,16 +4044,16 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4070,16 +4062,16 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4088,16 +4080,16 @@
       <c r="B21" s="3"/>
   